--- a/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.606394290372009</v>
+        <v>2.606394290371895</v>
       </c>
       <c r="C2">
-        <v>0.5001924292565718</v>
+        <v>0.500192429256515</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05932756382621207</v>
+        <v>0.05932756382624405</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.141313786726009</v>
+        <v>0.1413137867260303</v>
       </c>
       <c r="L2">
         <v>0.6637360910048713</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.24300487712469</v>
+        <v>2.243004877124861</v>
       </c>
       <c r="C3">
-        <v>0.432680582430379</v>
+        <v>0.4326805824302085</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05403431480130649</v>
+        <v>0.05403431480128518</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.24916073464027</v>
+        <v>2.249160734640284</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1225116024667372</v>
+        <v>0.122511602466723</v>
       </c>
       <c r="L3">
         <v>0.5720233067468001</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.02393371375382</v>
+        <v>2.023933713753706</v>
       </c>
       <c r="C4">
-        <v>0.3918611211740881</v>
+        <v>0.3918611211738892</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05089764684224463</v>
+        <v>0.05089764684230147</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.083285358536315</v>
+        <v>2.083285358536301</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1112385143540529</v>
+        <v>0.1112385143540564</v>
       </c>
       <c r="L4">
-        <v>0.5168416441585677</v>
+        <v>0.5168416441585464</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.935524893669196</v>
+        <v>1.93552489366914</v>
       </c>
       <c r="C5">
-        <v>0.3753559337025365</v>
+        <v>0.3753559337025649</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04964486844714422</v>
+        <v>0.0496448684471158</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>2.016957883665171</v>
+        <v>2.016957883665185</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1067038197002397</v>
+        <v>0.106703819700229</v>
       </c>
       <c r="L5">
-        <v>0.4945980966597929</v>
+        <v>0.4945980966597858</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.920892666111513</v>
+        <v>1.920892666111655</v>
       </c>
       <c r="C6">
-        <v>0.3726222346329564</v>
+        <v>0.3726222346331838</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04943829730778582</v>
+        <v>0.04943829730779115</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>2.006015866943144</v>
+        <v>2.00601586694313</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1059541619391418</v>
+        <v>0.1059541619391524</v>
       </c>
       <c r="L6">
-        <v>0.4909181573970258</v>
+        <v>0.4909181573970329</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>2.022738094132706</v>
       </c>
       <c r="C7">
-        <v>0.3916380413461695</v>
+        <v>0.3916380413464537</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05088065229695715</v>
+        <v>0.05088065229696781</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>2.082385935831155</v>
+        <v>2.082385935831141</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1111771296481834</v>
+        <v>0.1111771296482083</v>
       </c>
       <c r="L7">
-        <v>0.5165407253011622</v>
+        <v>0.5165407253011693</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.480158778911459</v>
+        <v>2.480158778911687</v>
       </c>
       <c r="C8">
-        <v>0.476763769686869</v>
+        <v>0.4767637696873521</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1347686723499741</v>
+        <v>0.1347686723500026</v>
       </c>
       <c r="L8">
         <v>0.6318530260110364</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.417220158322095</v>
+        <v>3.417220158322152</v>
       </c>
       <c r="C9">
-        <v>0.6502738997380675</v>
+        <v>0.6502738997383517</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07146818062733473</v>
+        <v>0.07146818062731697</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.169603159119262</v>
+        <v>3.16960315911922</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1836503997296646</v>
+        <v>0.1836503997296575</v>
       </c>
       <c r="L9">
         <v>0.8690379947601841</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.142869276641079</v>
+        <v>4.142869276641193</v>
       </c>
       <c r="C10">
-        <v>0.7842927971325366</v>
+        <v>0.7842927971319966</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08263972905955086</v>
+        <v>0.08263972905964323</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>3.76052592059213</v>
+        <v>3.760525920592215</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.484502528373412</v>
+        <v>4.484502528373582</v>
       </c>
       <c r="C11">
-        <v>0.8473717331915793</v>
+        <v>0.847371733192432</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.043791944030943</v>
+        <v>4.043791944030914</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.240016687086424</v>
+        <v>0.2400166870864382</v>
       </c>
       <c r="L11">
-        <v>1.140371650366212</v>
+        <v>1.140371650366227</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.615873537935272</v>
+        <v>4.615873537935158</v>
       </c>
       <c r="C12">
-        <v>0.8716318585336467</v>
+        <v>0.8716318585339025</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09004850745705895</v>
+        <v>0.09004850745714066</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.15353175630554</v>
+        <v>4.153531756305512</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2469968308025798</v>
+        <v>0.2469968308025585</v>
       </c>
       <c r="L12">
-        <v>1.173841450153994</v>
+        <v>1.173841450154001</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,19 +833,19 @@
         <v>4.587485298968659</v>
       </c>
       <c r="C13">
-        <v>0.8663891510639701</v>
+        <v>0.8663891510645385</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08960131609746469</v>
+        <v>0.08960131609749311</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>4.12978032638901</v>
+        <v>4.129780326389039</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2454877631496259</v>
+        <v>0.2454877631496188</v>
       </c>
       <c r="L13">
-        <v>1.166607683183557</v>
+        <v>1.16660768318355</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.495268201148747</v>
+        <v>4.49526820114869</v>
       </c>
       <c r="C14">
-        <v>0.849359699295178</v>
+        <v>0.8493596992948369</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08815082028850796</v>
+        <v>0.08815082028857546</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.052768240461091</v>
+        <v>4.052768240461063</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2405883811976182</v>
+        <v>0.2405883811976963</v>
       </c>
       <c r="L14">
-        <v>1.143113914328161</v>
+        <v>1.143113914328175</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.439054468363054</v>
+        <v>4.439054468363111</v>
       </c>
       <c r="C15">
-        <v>0.8389795878374287</v>
+        <v>0.8389795878370876</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08726828005595522</v>
+        <v>0.08726828005596943</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.005931032957847</v>
+        <v>4.005931032957903</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2376038750607989</v>
+        <v>0.2376038750607918</v>
       </c>
       <c r="L15">
-        <v>1.128796062967361</v>
+        <v>1.128796062967353</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,19 +947,19 @@
         <v>4.120802877342044</v>
       </c>
       <c r="C16">
-        <v>0.7802186402921052</v>
+        <v>0.7802186402924463</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08229638482641022</v>
+        <v>0.08229638482636048</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.74233693589656</v>
+        <v>3.742336935896503</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2207376808629107</v>
+        <v>0.2207376808628823</v>
       </c>
       <c r="L16">
-        <v>1.047787844460963</v>
+        <v>1.047787844460956</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.928746490657886</v>
+        <v>3.928746490657943</v>
       </c>
       <c r="C17">
-        <v>0.7447577622513109</v>
+        <v>0.7447577622511119</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07931720769531836</v>
+        <v>0.07931720769521533</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.584593334093256</v>
+        <v>3.584593334093228</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0.2105855247795674</v>
       </c>
       <c r="L17">
-        <v>0.9989460027449937</v>
+        <v>0.998946002745015</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.819342543132109</v>
+        <v>3.819342543131881</v>
       </c>
       <c r="C18">
-        <v>0.7245556800139354</v>
+        <v>0.7245556800134807</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07762768886911076</v>
+        <v>0.07762768886916405</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>3.495196617874171</v>
+        <v>3.495196617874086</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0.2048116356217093</v>
       </c>
       <c r="L18">
-        <v>0.9711392450867891</v>
+        <v>0.9711392450867748</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1067,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07705959051817146</v>
+        <v>0.07705959051818567</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
         <v>3.465146403134895</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2028673681774791</v>
+        <v>0.2028673681775075</v>
       </c>
       <c r="L19">
         <v>0.9617709266536707</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.949079019097326</v>
+        <v>3.949079019097383</v>
       </c>
       <c r="C20">
-        <v>0.7485120808762531</v>
+        <v>0.7485120808763099</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07963181563272315</v>
+        <v>0.07963181563273025</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.601244769004552</v>
+        <v>3.601244769004609</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2116593406938989</v>
+        <v>0.2116593406938634</v>
       </c>
       <c r="L20">
-        <v>1.004115117218952</v>
+        <v>1.004115117218966</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.522297235884935</v>
+        <v>4.522297235885048</v>
       </c>
       <c r="C21">
         <v>0.8543509081752347</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08857561702505024</v>
+        <v>0.088575617025068</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.075317959445556</v>
+        <v>4.075317959445584</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.242023968222945</v>
+        <v>0.2420239682229308</v>
       </c>
       <c r="L21">
-        <v>1.149999257664803</v>
+        <v>1.149999257664824</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>4.908801546250118</v>
       </c>
       <c r="C22">
-        <v>0.925741643945031</v>
+        <v>0.9257416439449742</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09468069898602138</v>
+        <v>0.0946806989861102</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>4.399801517398544</v>
+        <v>4.399801517398572</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2625906677585021</v>
+        <v>0.2625906677585164</v>
       </c>
       <c r="L22">
-        <v>1.248521753605317</v>
+        <v>1.248521753605303</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.701300998273041</v>
+        <v>4.701300998272927</v>
       </c>
       <c r="C23">
-        <v>0.8874096142176597</v>
+        <v>0.887409614217944</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09139608804374078</v>
+        <v>0.09139608804373012</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>4.22512954578275</v>
+        <v>4.225129545782806</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0.2515403384097255</v>
       </c>
       <c r="L23">
-        <v>1.195613652703699</v>
+        <v>1.195613652703713</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.93988355653039</v>
+        <v>3.939883556530276</v>
       </c>
       <c r="C24">
-        <v>0.74681418274821</v>
+        <v>0.7468141827476416</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07948950944448541</v>
+        <v>0.07948950944447475</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
         <v>3.59371265936241</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2111736746121977</v>
+        <v>0.2111736746122261</v>
       </c>
       <c r="L24">
-        <v>1.00177731661914</v>
+        <v>1.001777316619147</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.158221584196497</v>
+        <v>3.158221584196554</v>
       </c>
       <c r="C25">
-        <v>0.602391874997835</v>
+        <v>0.6023918749975792</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06754645886056565</v>
+        <v>0.06754645886053723</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.962505851526373</v>
+        <v>2.962505851526359</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1700754598397722</v>
+        <v>0.1700754598397687</v>
       </c>
       <c r="L25">
-        <v>0.8033703820661202</v>
+        <v>0.803370382066106</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.606394290371895</v>
+        <v>2.606394290372009</v>
       </c>
       <c r="C2">
-        <v>0.500192429256515</v>
+        <v>0.5001924292565718</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05932756382624405</v>
+        <v>0.05932756382621207</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1413137867260303</v>
+        <v>0.141313786726009</v>
       </c>
       <c r="L2">
         <v>0.6637360910048713</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.243004877124861</v>
+        <v>2.24300487712469</v>
       </c>
       <c r="C3">
-        <v>0.4326805824302085</v>
+        <v>0.432680582430379</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05403431480128518</v>
+        <v>0.05403431480130649</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.249160734640284</v>
+        <v>2.24916073464027</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.122511602466723</v>
+        <v>0.1225116024667372</v>
       </c>
       <c r="L3">
         <v>0.5720233067468001</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.023933713753706</v>
+        <v>2.02393371375382</v>
       </c>
       <c r="C4">
-        <v>0.3918611211738892</v>
+        <v>0.3918611211740881</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05089764684230147</v>
+        <v>0.05089764684224463</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.083285358536301</v>
+        <v>2.083285358536315</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1112385143540564</v>
+        <v>0.1112385143540529</v>
       </c>
       <c r="L4">
-        <v>0.5168416441585464</v>
+        <v>0.5168416441585677</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.93552489366914</v>
+        <v>1.935524893669196</v>
       </c>
       <c r="C5">
-        <v>0.3753559337025649</v>
+        <v>0.3753559337025365</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0496448684471158</v>
+        <v>0.04964486844714422</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>2.016957883665185</v>
+        <v>2.016957883665171</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.106703819700229</v>
+        <v>0.1067038197002397</v>
       </c>
       <c r="L5">
-        <v>0.4945980966597858</v>
+        <v>0.4945980966597929</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.920892666111655</v>
+        <v>1.920892666111513</v>
       </c>
       <c r="C6">
-        <v>0.3726222346331838</v>
+        <v>0.3726222346329564</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04943829730779115</v>
+        <v>0.04943829730778582</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>2.00601586694313</v>
+        <v>2.006015866943144</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1059541619391524</v>
+        <v>0.1059541619391418</v>
       </c>
       <c r="L6">
-        <v>0.4909181573970329</v>
+        <v>0.4909181573970258</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>2.022738094132706</v>
       </c>
       <c r="C7">
-        <v>0.3916380413464537</v>
+        <v>0.3916380413461695</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05088065229696781</v>
+        <v>0.05088065229695715</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.082385935831141</v>
+        <v>2.082385935831155</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1111771296482083</v>
+        <v>0.1111771296481834</v>
       </c>
       <c r="L7">
-        <v>0.5165407253011693</v>
+        <v>0.5165407253011622</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.480158778911687</v>
+        <v>2.480158778911459</v>
       </c>
       <c r="C8">
-        <v>0.4767637696873521</v>
+        <v>0.476763769686869</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1347686723500026</v>
+        <v>0.1347686723499741</v>
       </c>
       <c r="L8">
         <v>0.6318530260110364</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.417220158322152</v>
+        <v>3.417220158322095</v>
       </c>
       <c r="C9">
-        <v>0.6502738997383517</v>
+        <v>0.6502738997380675</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07146818062731697</v>
+        <v>0.07146818062733473</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.16960315911922</v>
+        <v>3.169603159119262</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1836503997296575</v>
+        <v>0.1836503997296646</v>
       </c>
       <c r="L9">
         <v>0.8690379947601841</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.142869276641193</v>
+        <v>4.142869276641079</v>
       </c>
       <c r="C10">
-        <v>0.7842927971319966</v>
+        <v>0.7842927971325366</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08263972905964323</v>
+        <v>0.08263972905955086</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>3.760525920592215</v>
+        <v>3.76052592059213</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.484502528373582</v>
+        <v>4.484502528373412</v>
       </c>
       <c r="C11">
-        <v>0.847371733192432</v>
+        <v>0.8473717331915793</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.043791944030914</v>
+        <v>4.043791944030943</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2400166870864382</v>
+        <v>0.240016687086424</v>
       </c>
       <c r="L11">
-        <v>1.140371650366227</v>
+        <v>1.140371650366212</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.615873537935158</v>
+        <v>4.615873537935272</v>
       </c>
       <c r="C12">
-        <v>0.8716318585339025</v>
+        <v>0.8716318585336467</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09004850745714066</v>
+        <v>0.09004850745705895</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.153531756305512</v>
+        <v>4.15353175630554</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2469968308025585</v>
+        <v>0.2469968308025798</v>
       </c>
       <c r="L12">
-        <v>1.173841450154001</v>
+        <v>1.173841450153994</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,19 +833,19 @@
         <v>4.587485298968659</v>
       </c>
       <c r="C13">
-        <v>0.8663891510645385</v>
+        <v>0.8663891510639701</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08960131609749311</v>
+        <v>0.08960131609746469</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.129780326389039</v>
+        <v>4.12978032638901</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2454877631496188</v>
+        <v>0.2454877631496259</v>
       </c>
       <c r="L13">
-        <v>1.16660768318355</v>
+        <v>1.166607683183557</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.49526820114869</v>
+        <v>4.495268201148747</v>
       </c>
       <c r="C14">
-        <v>0.8493596992948369</v>
+        <v>0.849359699295178</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08815082028857546</v>
+        <v>0.08815082028850796</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.052768240461063</v>
+        <v>4.052768240461091</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2405883811976963</v>
+        <v>0.2405883811976182</v>
       </c>
       <c r="L14">
-        <v>1.143113914328175</v>
+        <v>1.143113914328161</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.439054468363111</v>
+        <v>4.439054468363054</v>
       </c>
       <c r="C15">
-        <v>0.8389795878370876</v>
+        <v>0.8389795878374287</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08726828005596943</v>
+        <v>0.08726828005595522</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.005931032957903</v>
+        <v>4.005931032957847</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2376038750607918</v>
+        <v>0.2376038750607989</v>
       </c>
       <c r="L15">
-        <v>1.128796062967353</v>
+        <v>1.128796062967361</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,19 +947,19 @@
         <v>4.120802877342044</v>
       </c>
       <c r="C16">
-        <v>0.7802186402924463</v>
+        <v>0.7802186402921052</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08229638482636048</v>
+        <v>0.08229638482641022</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.742336935896503</v>
+        <v>3.74233693589656</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2207376808628823</v>
+        <v>0.2207376808629107</v>
       </c>
       <c r="L16">
-        <v>1.047787844460956</v>
+        <v>1.047787844460963</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.928746490657943</v>
+        <v>3.928746490657886</v>
       </c>
       <c r="C17">
-        <v>0.7447577622511119</v>
+        <v>0.7447577622513109</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07931720769521533</v>
+        <v>0.07931720769531836</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.584593334093228</v>
+        <v>3.584593334093256</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0.2105855247795674</v>
       </c>
       <c r="L17">
-        <v>0.998946002745015</v>
+        <v>0.9989460027449937</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.819342543131881</v>
+        <v>3.819342543132109</v>
       </c>
       <c r="C18">
-        <v>0.7245556800134807</v>
+        <v>0.7245556800139354</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07762768886916405</v>
+        <v>0.07762768886911076</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.495196617874086</v>
+        <v>3.495196617874171</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0.2048116356217093</v>
       </c>
       <c r="L18">
-        <v>0.9711392450867748</v>
+        <v>0.9711392450867891</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1067,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07705959051818567</v>
+        <v>0.07705959051817146</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
         <v>3.465146403134895</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2028673681775075</v>
+        <v>0.2028673681774791</v>
       </c>
       <c r="L19">
         <v>0.9617709266536707</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.949079019097383</v>
+        <v>3.949079019097326</v>
       </c>
       <c r="C20">
-        <v>0.7485120808763099</v>
+        <v>0.7485120808762531</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07963181563273025</v>
+        <v>0.07963181563272315</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.601244769004609</v>
+        <v>3.601244769004552</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2116593406938634</v>
+        <v>0.2116593406938989</v>
       </c>
       <c r="L20">
-        <v>1.004115117218966</v>
+        <v>1.004115117218952</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.522297235885048</v>
+        <v>4.522297235884935</v>
       </c>
       <c r="C21">
         <v>0.8543509081752347</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.088575617025068</v>
+        <v>0.08857561702505024</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.075317959445584</v>
+        <v>4.075317959445556</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2420239682229308</v>
+        <v>0.242023968222945</v>
       </c>
       <c r="L21">
-        <v>1.149999257664824</v>
+        <v>1.149999257664803</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>4.908801546250118</v>
       </c>
       <c r="C22">
-        <v>0.9257416439449742</v>
+        <v>0.925741643945031</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0946806989861102</v>
+        <v>0.09468069898602138</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>4.399801517398572</v>
+        <v>4.399801517398544</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2625906677585164</v>
+        <v>0.2625906677585021</v>
       </c>
       <c r="L22">
-        <v>1.248521753605303</v>
+        <v>1.248521753605317</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.701300998272927</v>
+        <v>4.701300998273041</v>
       </c>
       <c r="C23">
-        <v>0.887409614217944</v>
+        <v>0.8874096142176597</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09139608804373012</v>
+        <v>0.09139608804374078</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>4.225129545782806</v>
+        <v>4.22512954578275</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0.2515403384097255</v>
       </c>
       <c r="L23">
-        <v>1.195613652703713</v>
+        <v>1.195613652703699</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.939883556530276</v>
+        <v>3.93988355653039</v>
       </c>
       <c r="C24">
-        <v>0.7468141827476416</v>
+        <v>0.74681418274821</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07948950944447475</v>
+        <v>0.07948950944448541</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>3.59371265936241</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2111736746122261</v>
+        <v>0.2111736746121977</v>
       </c>
       <c r="L24">
-        <v>1.001777316619147</v>
+        <v>1.00177731661914</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.158221584196554</v>
+        <v>3.158221584196497</v>
       </c>
       <c r="C25">
-        <v>0.6023918749975792</v>
+        <v>0.602391874997835</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06754645886053723</v>
+        <v>0.06754645886056565</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.962505851526359</v>
+        <v>2.962505851526373</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1700754598397687</v>
+        <v>0.1700754598397722</v>
       </c>
       <c r="L25">
-        <v>0.803370382066106</v>
+        <v>0.8033703820661202</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.606394290372009</v>
+        <v>2.606201160751198</v>
       </c>
       <c r="C2">
-        <v>0.5001924292565718</v>
+        <v>0.5000879418884381</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05932756382621207</v>
+        <v>0.05931555806305155</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.528701730204077</v>
+        <v>0.8117743459439879</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.70688322186885</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.141313786726009</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6637360910048713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1413089264330338</v>
+      </c>
+      <c r="M2">
+        <v>0.6637039837299383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.24300487712469</v>
+        <v>2.242898958416617</v>
       </c>
       <c r="C3">
-        <v>0.432680582430379</v>
+        <v>0.4326165685810111</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05403431480130649</v>
+        <v>0.05402612277626773</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.24916073464027</v>
+        <v>0.7160943376058668</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.52486062292607</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1225116024667372</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5720233067468001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1225089150735315</v>
+      </c>
+      <c r="M3">
+        <v>0.5720065794897167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.02393371375382</v>
+        <v>2.023870181134043</v>
       </c>
       <c r="C4">
-        <v>0.3918611211740881</v>
+        <v>0.3918192677668344</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05089764684224463</v>
+        <v>0.05089189465400068</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.083285358536315</v>
+        <v>0.6592328872211795</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.416952898565199</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1112385143540529</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5168416441585677</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1112368816832223</v>
+      </c>
+      <c r="M4">
+        <v>0.5168320494942833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.935524893669196</v>
+        <v>1.935476217059374</v>
       </c>
       <c r="C5">
-        <v>0.3753559337025365</v>
+        <v>0.375322538495368</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04964486844714422</v>
+        <v>0.04964013712030457</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>2.016957883665171</v>
+        <v>0.6364747755156657</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.37382969395108</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1067038197002397</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4945980966597929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1067025590688395</v>
+      </c>
+      <c r="M5">
+        <v>0.4945909113072489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.920892666111513</v>
+        <v>1.920846320796414</v>
       </c>
       <c r="C6">
-        <v>0.3726222346329564</v>
+        <v>0.3725902121257434</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04943829730778582</v>
+        <v>0.04943373714914046</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>2.006015866943144</v>
+        <v>0.632719101414466</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.366717184663301</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1059541619391418</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4909181573970258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1059529599244975</v>
+      </c>
+      <c r="M6">
+        <v>0.490911344305033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.022738094132706</v>
+        <v>2.022674771173911</v>
       </c>
       <c r="C7">
-        <v>0.3916380413461695</v>
+        <v>0.3915963041992541</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05088065229695715</v>
+        <v>0.05087491376649567</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.082385935831155</v>
+        <v>0.6589243659988995</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.416368031564758</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1111771296481834</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5165407253011622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1111755022136123</v>
+      </c>
+      <c r="M7">
+        <v>0.5165311650408952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.480158778911459</v>
+        <v>2.479998288324225</v>
       </c>
       <c r="C8">
-        <v>0.476763769686869</v>
+        <v>0.4766738631889496</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05747696831850035</v>
+        <v>0.05746625845619846</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.431004942559582</v>
+        <v>0.778353752178262</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.643246259767949</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1347686723499741</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6318530260110364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1347646274479715</v>
+      </c>
+      <c r="M8">
+        <v>0.6318267556991799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.417220158322095</v>
+        <v>3.416759632813864</v>
       </c>
       <c r="C9">
-        <v>0.6502738997380675</v>
+        <v>0.6500626246191246</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07146818062733473</v>
+        <v>0.07144838479733551</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.169603159119262</v>
+        <v>1.030624373508545</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.124807530264107</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1836503997296646</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8690379947601841</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1836387056418545</v>
+      </c>
+      <c r="M9">
+        <v>0.8689560889502275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.142869276641079</v>
+        <v>4.142085741600795</v>
       </c>
       <c r="C10">
-        <v>0.7842927971325366</v>
+        <v>0.7839664835009614</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08263972905955086</v>
+        <v>0.08261343682997335</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>3.76052592059213</v>
+        <v>1.231950321890253</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.510670270162422</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2219054062878314</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.053401743921221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2218850947528779</v>
+      </c>
+      <c r="M10">
+        <v>1.053257190301089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.484502528373412</v>
+        <v>4.483539236935655</v>
       </c>
       <c r="C11">
-        <v>0.8473717331915793</v>
+        <v>0.8469847053659976</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0879817043810931</v>
+        <v>0.08795242016207538</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.043791944030943</v>
+        <v>1.328339623841515</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.695772832128512</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.240016687086424</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.140371650366212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2399914290587475</v>
+      </c>
+      <c r="M11">
+        <v>1.140191538200661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.615873537935272</v>
+        <v>4.614836312447153</v>
       </c>
       <c r="C12">
-        <v>0.8716318585336467</v>
+        <v>0.8712203358211923</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09004850745705895</v>
+        <v>0.0900180759763991</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.15353175630554</v>
+        <v>1.365663843301434</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.767503147039264</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2469968308025798</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.173841450153994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2469695099617084</v>
+      </c>
+      <c r="M12">
+        <v>1.173646601937286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.587485298968659</v>
+        <v>4.586464278511698</v>
       </c>
       <c r="C13">
-        <v>0.8663891510639701</v>
+        <v>0.865982976150093</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08960131609746469</v>
+        <v>0.08957113250784232</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.12978032638901</v>
+        <v>1.357586417317378</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.751977374550819</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2454877631496259</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.166607683183557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2454608958002069</v>
+      </c>
+      <c r="M13">
+        <v>1.166416069912543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.495268201148747</v>
+        <v>4.494298952175939</v>
       </c>
       <c r="C14">
-        <v>0.849359699295178</v>
+        <v>0.8489706883563315</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08815082028850796</v>
+        <v>0.08812144203091421</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.052768240461091</v>
+        <v>1.331392962256416</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.701639697968005</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2405883811976182</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.143113914328161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.240562957543645</v>
+      </c>
+      <c r="M14">
+        <v>1.142932616977149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.439054468363054</v>
+        <v>4.43811612861316</v>
       </c>
       <c r="C15">
-        <v>0.8389795878374287</v>
+        <v>0.8386008844620108</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08726828005595522</v>
+        <v>0.08723939291625982</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.005931032957847</v>
+        <v>1.315460299226544</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.671027915860179</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2376038750607989</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.128796062967361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2375793095712027</v>
+      </c>
+      <c r="M15">
+        <v>1.128620910265553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.120802877342044</v>
+        <v>4.120030337491585</v>
       </c>
       <c r="C16">
-        <v>0.7802186402921052</v>
+        <v>0.7798961018123691</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08229638482641022</v>
+        <v>0.08227028668459013</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.74233693589656</v>
+        <v>1.225758600911689</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.498787222896141</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2207376808629107</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.047787844460963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.220717668583724</v>
+      </c>
+      <c r="M16">
+        <v>1.04764545213402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.928746490657886</v>
+        <v>3.928066523412667</v>
       </c>
       <c r="C17">
-        <v>0.7447577622513109</v>
+        <v>0.7444673402552269</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07931720769531836</v>
+        <v>0.07929280553073426</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.584593334093256</v>
+        <v>1.172048029674613</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.395746433937745</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2105855247795674</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9989460027449937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2105680161689349</v>
+      </c>
+      <c r="M17">
+        <v>0.9988217361901661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.819342543132109</v>
+        <v>3.818712814338369</v>
       </c>
       <c r="C18">
-        <v>0.7245556800139354</v>
+        <v>0.7242829628845016</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07762768886911076</v>
+        <v>0.07760425940054105</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.495196617874171</v>
+        <v>1.141598308140289</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.337363223792352</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2048116356217093</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9711392450867891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2047954735148068</v>
+      </c>
+      <c r="M18">
+        <v>0.9710247579151883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.782473048796419</v>
+        <v>3.781859844174789</v>
       </c>
       <c r="C19">
-        <v>0.7177470055040942</v>
+        <v>0.7174801591151265</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07705959051817146</v>
+        <v>0.0770364901403866</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>3.465146403134895</v>
+        <v>1.131360972590244</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.317740113508052</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2028673681774791</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9617709266536707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2028516470211557</v>
+      </c>
+      <c r="M19">
+        <v>0.9616596464782603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.949079019097326</v>
+        <v>3.948389516000873</v>
       </c>
       <c r="C20">
-        <v>0.7485120808762531</v>
+        <v>0.7482183214272027</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07963181563272315</v>
+        <v>0.07960723327324004</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.601244769004552</v>
+        <v>1.177718851566823</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.40662215515448</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2116593406938989</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.004115117218952</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2116415755155217</v>
+      </c>
+      <c r="M20">
+        <v>1.003988989671555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.522297235884935</v>
+        <v>4.521312950013851</v>
       </c>
       <c r="C21">
-        <v>0.8543509081752347</v>
+        <v>0.853956899296719</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08857561702505024</v>
+        <v>0.08854600269445001</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.075317959445556</v>
+        <v>1.339063091789995</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.716378407473968</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.242023968222945</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.149999257664803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2419981260597268</v>
+      </c>
+      <c r="M21">
+        <v>1.149814967118736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.908801546250118</v>
+        <v>4.907589676620489</v>
       </c>
       <c r="C22">
-        <v>0.925741643945031</v>
+        <v>0.9252731584118123</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09468069898602138</v>
+        <v>0.09464770646029663</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>4.399801517398544</v>
+        <v>1.449390587053301</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.928511689094222</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2625906677585021</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.248521753605317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2625584128875289</v>
+      </c>
+      <c r="M22">
+        <v>1.248291874994848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.701300998273041</v>
+        <v>4.700214244061442</v>
       </c>
       <c r="C23">
-        <v>0.8874096142176597</v>
+        <v>0.8869818157654663</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09139608804374078</v>
+        <v>0.09136491046525208</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>4.22512954578275</v>
+        <v>1.3900103084992</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.814307903730935</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2515403384097255</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.195613652703699</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2515116268836408</v>
+      </c>
+      <c r="M23">
+        <v>1.195408900338677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.93988355653039</v>
+        <v>3.939198373799798</v>
       </c>
       <c r="C24">
-        <v>0.74681418274821</v>
+        <v>0.7465219345049263</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07948950944448541</v>
+        <v>0.07946500855777572</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>3.59371265936241</v>
+        <v>1.175153745840021</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.401702593401183</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2111736746121977</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.00177731661914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2111560257144092</v>
+      </c>
+      <c r="M24">
+        <v>1.001652032405723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.158221584196497</v>
+        <v>3.15785722307254</v>
       </c>
       <c r="C25">
-        <v>0.602391874997835</v>
+        <v>0.6022171822491771</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06754645886056565</v>
+        <v>0.06752906937215286</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.962505851526373</v>
+        <v>0.9599720533018115</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.989685381130855</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1700754598397722</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8033703820661202</v>
+        <v>0.1700662563403839</v>
+      </c>
+      <c r="M25">
+        <v>0.803306687597356</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.606201160751198</v>
+        <v>3.573322176328588</v>
       </c>
       <c r="C2">
-        <v>0.5000879418884381</v>
+        <v>0.9546724230741859</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05931555806305155</v>
+        <v>0.4540640089081407</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.84303209824111</v>
       </c>
       <c r="G2">
-        <v>0.8117743459439879</v>
+        <v>0.0007747266967853034</v>
       </c>
       <c r="H2">
-        <v>1.70688322186885</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08599962786272641</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1413089264330338</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6637039837299383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.5358440242826257</v>
+      </c>
+      <c r="O2">
+        <v>1.035369930528844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.242898958416617</v>
+        <v>3.084320465984263</v>
       </c>
       <c r="C3">
-        <v>0.4326165685810111</v>
+        <v>0.8232255495288143</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05402612277626773</v>
+        <v>0.3992539376048541</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>2.531605092353402</v>
       </c>
       <c r="G3">
-        <v>0.7160943376058668</v>
+        <v>0.0007828766337680191</v>
       </c>
       <c r="H3">
-        <v>1.52486062292607</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07740430344474447</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1225089150735315</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5720065794897167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.5881069644517839</v>
+      </c>
+      <c r="O3">
+        <v>0.9323202243345037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.023870181134043</v>
+        <v>2.788356531543457</v>
       </c>
       <c r="C4">
-        <v>0.3918192677668344</v>
+        <v>0.743589128094186</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05089189465400068</v>
+        <v>0.3661151468668109</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>2.34687984937166</v>
       </c>
       <c r="G4">
-        <v>0.6592328872211795</v>
+        <v>0.0007880020082654104</v>
       </c>
       <c r="H4">
-        <v>1.416952898565199</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07242313795998712</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1112368816832223</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5168320494942833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.6217337563681984</v>
+      </c>
+      <c r="O4">
+        <v>0.872398907167252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.935476217059374</v>
+        <v>2.668664406594303</v>
       </c>
       <c r="C5">
-        <v>0.375322538495368</v>
+        <v>0.7113611261259507</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04964013712030457</v>
+        <v>0.3527241962175154</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>2.273059847025493</v>
       </c>
       <c r="G5">
-        <v>0.6364747755156657</v>
+        <v>0.0007901228661093711</v>
       </c>
       <c r="H5">
-        <v>1.37382969395108</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07045997903333046</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1067025590688395</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4945909113072489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.6358050147899874</v>
+      </c>
+      <c r="O5">
+        <v>0.8487369716753506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.920846320796414</v>
+        <v>2.648840454384867</v>
       </c>
       <c r="C6">
-        <v>0.3725902121257434</v>
+        <v>0.7060220058656057</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04943373714914046</v>
+        <v>0.3505070441225158</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>2.260885254034889</v>
       </c>
       <c r="G6">
-        <v>0.632719101414466</v>
+        <v>0.0007904770272445875</v>
       </c>
       <c r="H6">
-        <v>1.366717184663301</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07013781138748953</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1059529599244975</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.490911344305033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.6381632582246241</v>
+      </c>
+      <c r="O6">
+        <v>0.844851234470724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.022674771173911</v>
+        <v>2.786738818222659</v>
       </c>
       <c r="C7">
-        <v>0.3915963041992541</v>
+        <v>0.7431536378005035</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05087491376649567</v>
+        <v>0.3659341129637426</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>2.34587860824989</v>
       </c>
       <c r="G7">
-        <v>0.6589243659988995</v>
+        <v>0.0007880304782557418</v>
       </c>
       <c r="H7">
-        <v>1.416368031564758</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07239640185159146</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1111755022136123</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5165311650408952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.6219220591810166</v>
+      </c>
+      <c r="O7">
+        <v>0.8720768396235528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.479998288324225</v>
+        <v>3.403722799267825</v>
       </c>
       <c r="C8">
-        <v>0.4766738631889496</v>
+        <v>0.909098367691314</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05746625845619846</v>
+        <v>0.4350484814416049</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>2.734193904293335</v>
       </c>
       <c r="G8">
-        <v>0.778353752178262</v>
+        <v>0.0007775127114133203</v>
       </c>
       <c r="H8">
-        <v>1.643246259767949</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08296950184357144</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1347646274479715</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6318267556991799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.553533624855013</v>
+      </c>
+      <c r="O8">
+        <v>0.9990883450156929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.416759632813864</v>
+        <v>4.655812601906291</v>
       </c>
       <c r="C9">
-        <v>0.6500626246191246</v>
+        <v>1.245319364619775</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07144838479733551</v>
+        <v>0.5754830594480111</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>3.55604151445516</v>
       </c>
       <c r="G9">
-        <v>1.030624373508545</v>
+        <v>0.0007577629893962729</v>
       </c>
       <c r="H9">
-        <v>2.124807530264107</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1064502386066835</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1836387056418545</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8689560889502275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.4325436506639394</v>
+      </c>
+      <c r="O9">
+        <v>1.279095007983358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.142085741600795</v>
+        <v>5.614395742707416</v>
       </c>
       <c r="C10">
-        <v>0.7839664835009614</v>
+        <v>1.502576589324576</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08261343682997335</v>
+        <v>0.6829480259878409</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>4.210642483448339</v>
       </c>
       <c r="G10">
-        <v>1.231950321890253</v>
+        <v>0.0007436504328558177</v>
       </c>
       <c r="H10">
-        <v>2.510670270162422</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1260022222601904</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2218850947528779</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.053257190301089</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.3530989063028535</v>
+      </c>
+      <c r="O10">
+        <v>1.510532196399879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.483539236935655</v>
+        <v>6.062268097160768</v>
       </c>
       <c r="C11">
-        <v>0.8469847053659976</v>
+        <v>1.622794395756216</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08795242016207538</v>
+        <v>0.733109889844016</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>4.523135864159087</v>
       </c>
       <c r="G11">
-        <v>1.328339623841515</v>
+        <v>0.0007372812186911878</v>
       </c>
       <c r="H11">
-        <v>2.695772832128512</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1355615723451749</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2399914290587475</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.140191538200661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.3193886773359793</v>
+      </c>
+      <c r="O11">
+        <v>1.623200512519077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.614836312447153</v>
+        <v>6.23389407638615</v>
       </c>
       <c r="C12">
-        <v>0.8712203358211923</v>
+        <v>1.668870912858267</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0900180759763991</v>
+        <v>0.7523217920509353</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>4.643943987244114</v>
       </c>
       <c r="G12">
-        <v>1.365663843301434</v>
+        <v>0.0007348732190884106</v>
       </c>
       <c r="H12">
-        <v>2.767503147039264</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1392933499466196</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2469695099617084</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.173646601937286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.3070104115619359</v>
+      </c>
+      <c r="O12">
+        <v>1.667103451019898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.586464278511698</v>
+        <v>6.196835475890566</v>
       </c>
       <c r="C13">
-        <v>0.865982976150093</v>
+        <v>1.658921282542053</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08957113250784232</v>
+        <v>0.7481739435398822</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>4.617809504805336</v>
       </c>
       <c r="G13">
-        <v>1.357586417317378</v>
+        <v>0.0007353917115039109</v>
       </c>
       <c r="H13">
-        <v>2.751977374550819</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1384843849280131</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2454608958002069</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.166416069912543</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.3096584180944038</v>
+      </c>
+      <c r="O13">
+        <v>1.65759003318577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.494298952175939</v>
+        <v>6.076345203898768</v>
       </c>
       <c r="C14">
-        <v>0.8489706883563315</v>
+        <v>1.626573474015856</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08812144203091421</v>
+        <v>0.7346859131849186</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>4.533023004585573</v>
       </c>
       <c r="G14">
-        <v>1.331392962256416</v>
+        <v>0.0007370830545051814</v>
       </c>
       <c r="H14">
-        <v>2.701639697968005</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1358662443653316</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.240562957543645</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.142932616977149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.3183623170040224</v>
+      </c>
+      <c r="O14">
+        <v>1.626786525006537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.43811612861316</v>
+        <v>6.002815899802783</v>
       </c>
       <c r="C15">
-        <v>0.8386008844620108</v>
+        <v>1.606834506499581</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08723939291625982</v>
+        <v>0.7264533979612651</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>4.4814224979757</v>
       </c>
       <c r="G15">
-        <v>1.315460299226544</v>
+        <v>0.0007381194474461446</v>
       </c>
       <c r="H15">
-        <v>2.671027915860179</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1342776484590331</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2375793095712027</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.128620910265553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.323745326099189</v>
+      </c>
+      <c r="O15">
+        <v>1.608085354217266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.120030337491585</v>
+        <v>5.585390855467324</v>
       </c>
       <c r="C16">
-        <v>0.7798961018123691</v>
+        <v>1.494791979927072</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08227028668459013</v>
+        <v>0.6796982303346937</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>4.19054578912511</v>
       </c>
       <c r="G16">
-        <v>1.225758600911689</v>
+        <v>0.0007440674153736948</v>
       </c>
       <c r="H16">
-        <v>2.498787222896141</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1253922114345301</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.220717668583724</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.04764545213402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.355353939240435</v>
+      </c>
+      <c r="O16">
+        <v>1.503332138866213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.928066523412667</v>
+        <v>5.332557740273785</v>
       </c>
       <c r="C17">
-        <v>0.7444673402552269</v>
+        <v>1.426937148852858</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07929280553073426</v>
+        <v>0.651364309855083</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>4.016109356917156</v>
       </c>
       <c r="G17">
-        <v>1.172048029674613</v>
+        <v>0.0007477270022681037</v>
       </c>
       <c r="H17">
-        <v>2.395746433937745</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1201224269960193</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2105680161689349</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9988217361901661</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.3753922457244407</v>
+      </c>
+      <c r="O17">
+        <v>1.441078522545794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.818712814338369</v>
+        <v>5.188224033104802</v>
       </c>
       <c r="C18">
-        <v>0.7242829628845016</v>
+        <v>1.388202745351919</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07760425940054105</v>
+        <v>0.635185186738795</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>3.91713865574394</v>
       </c>
       <c r="G18">
-        <v>1.141598308140289</v>
+        <v>0.0007498368975156171</v>
       </c>
       <c r="H18">
-        <v>2.337363223792352</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1171528826588144</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2047954735148068</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9710247579151883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.3871438841635854</v>
+      </c>
+      <c r="O18">
+        <v>1.405955230297522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.781859844174789</v>
+        <v>5.139532934279202</v>
       </c>
       <c r="C19">
-        <v>0.7174801591151265</v>
+        <v>1.375135780463552</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0770364901403866</v>
+        <v>0.6297265100087799</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>3.883852463798917</v>
       </c>
       <c r="G19">
-        <v>1.131360972590244</v>
+        <v>0.0007505522261630656</v>
       </c>
       <c r="H19">
-        <v>2.317740113508052</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1161575519950304</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2028516470211557</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9616596464782603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.3911605630547041</v>
+      </c>
+      <c r="O19">
+        <v>1.394175501519953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.948389516000873</v>
+        <v>5.35935729688191</v>
       </c>
       <c r="C20">
-        <v>0.7482183214272027</v>
+        <v>1.434129357736651</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07960723327324004</v>
+        <v>0.6543680868497148</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>4.034535174394478</v>
       </c>
       <c r="G20">
-        <v>1.177718851566823</v>
+        <v>0.0007473369388518933</v>
       </c>
       <c r="H20">
-        <v>2.40662215515448</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1206769299968471</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2116415755155217</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.003988989671555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.3732354736860242</v>
+      </c>
+      <c r="O20">
+        <v>1.447633610347225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.521312950013851</v>
+        <v>6.111678263535453</v>
       </c>
       <c r="C21">
-        <v>0.853956899296719</v>
+        <v>1.636058991618768</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08854600269445001</v>
+        <v>0.738641503424418</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>4.557856602282357</v>
       </c>
       <c r="G21">
-        <v>1.339063091789995</v>
+        <v>0.0007365861901639571</v>
       </c>
       <c r="H21">
-        <v>2.716378407473968</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.13663207829768</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2419981260597268</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.149814967118736</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.3157949382149856</v>
+      </c>
+      <c r="O21">
+        <v>1.635799135947948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.907589676620489</v>
+        <v>6.615364020619779</v>
       </c>
       <c r="C22">
-        <v>0.9252731584118123</v>
+        <v>1.771307309493579</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09464770646029663</v>
+        <v>0.7950013675094425</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>4.914502286963824</v>
       </c>
       <c r="G22">
-        <v>1.449390587053301</v>
+        <v>0.000729580641580403</v>
       </c>
       <c r="H22">
-        <v>2.928511689094222</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1477210946421152</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2625584128875289</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.248291874994848</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.2805320128111273</v>
+      </c>
+      <c r="O22">
+        <v>1.766092860298727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.700214244061442</v>
+        <v>6.345317862095385</v>
       </c>
       <c r="C23">
-        <v>0.8869818157654663</v>
+        <v>1.698788127169337</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09136491046525208</v>
+        <v>0.7647913573267289</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>4.722682891318527</v>
       </c>
       <c r="G23">
-        <v>1.3900103084992</v>
+        <v>0.0007333189979946091</v>
       </c>
       <c r="H23">
-        <v>2.814307903730935</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1417361296024851</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2515116268836408</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.195408900338677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.2991301369697843</v>
+      </c>
+      <c r="O23">
+        <v>1.695818058992728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.939198373799798</v>
+        <v>5.34723805380338</v>
       </c>
       <c r="C24">
-        <v>0.7465219345049263</v>
+        <v>1.430876906568926</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07946500855777572</v>
+        <v>0.6530097377667659</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>4.02620079234714</v>
       </c>
       <c r="G24">
-        <v>1.175153745840021</v>
+        <v>0.0007475132677101882</v>
       </c>
       <c r="H24">
-        <v>2.401702593401183</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1204260531073729</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2111560257144092</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.001652032405723</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.3742098325057686</v>
+      </c>
+      <c r="O24">
+        <v>1.444667990097997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.15785722307254</v>
+        <v>4.311331051601599</v>
       </c>
       <c r="C25">
-        <v>0.6022171822491771</v>
+        <v>1.152857293733007</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06752906937215286</v>
+        <v>0.5368427606037756</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>3.325907998631749</v>
       </c>
       <c r="G25">
-        <v>0.9599720533018115</v>
+        <v>0.0007630251761498718</v>
       </c>
       <c r="H25">
-        <v>1.989685381130855</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.09974417727448071</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1700662563403839</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.803306687597356</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.4637315492948437</v>
+      </c>
+      <c r="O25">
+        <v>1.199377135547877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.573322176328588</v>
+        <v>0.7863179295381144</v>
       </c>
       <c r="C2">
-        <v>0.9546724230741859</v>
+        <v>0.0934239417035343</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4540640089081407</v>
+        <v>0.3435151403469092</v>
       </c>
       <c r="F2">
-        <v>2.84303209824111</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007747266967853034</v>
+        <v>0.0008054376530053742</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08599962786272641</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7834642691073981</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.5737274204153451</v>
       </c>
       <c r="N2">
-        <v>0.5358440242826257</v>
+        <v>0.7443673699072715</v>
       </c>
       <c r="O2">
-        <v>1.035369930528844</v>
+        <v>1.266055705185522</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.084320465984263</v>
+        <v>0.6829049422969717</v>
       </c>
       <c r="C3">
-        <v>0.8232255495288143</v>
+        <v>0.08450753760583041</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3992539376048541</v>
+        <v>0.2986778824930525</v>
       </c>
       <c r="F3">
-        <v>2.531605092353402</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007828766337680191</v>
+        <v>0.0008088727963227031</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07740430344474447</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.682118522401808</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4968484325130547</v>
       </c>
       <c r="N3">
-        <v>0.5881069644517839</v>
+        <v>0.7849480811598673</v>
       </c>
       <c r="O3">
-        <v>0.9323202243345037</v>
+        <v>1.25581327283345</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.788356531543457</v>
+        <v>0.6195753607860581</v>
       </c>
       <c r="C4">
-        <v>0.743589128094186</v>
+        <v>0.07902628435300585</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3661151468668109</v>
+        <v>0.2716103708237014</v>
       </c>
       <c r="F4">
-        <v>2.34687984937166</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007880020082654104</v>
+        <v>0.0008110493912554658</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07242313795998712</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6199792185187079</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4500485196044082</v>
       </c>
       <c r="N4">
-        <v>0.6217337563681984</v>
+        <v>0.8109675006424073</v>
       </c>
       <c r="O4">
-        <v>0.872398907167252</v>
+        <v>1.252531082157518</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.668664406594303</v>
+        <v>0.5937997342960273</v>
       </c>
       <c r="C5">
-        <v>0.7113611261259507</v>
+        <v>0.07679023626819514</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3527241962175154</v>
+        <v>0.2606838679470016</v>
       </c>
       <c r="F5">
-        <v>2.273059847025493</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007901228661093711</v>
+        <v>0.0008119536426037276</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07045997903333046</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5946693781676657</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4310647298296146</v>
       </c>
       <c r="N5">
-        <v>0.6358050147899874</v>
+        <v>0.8218410190814645</v>
       </c>
       <c r="O5">
-        <v>0.8487369716753506</v>
+        <v>1.251914386663088</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.648840454384867</v>
+        <v>0.5895213392749099</v>
       </c>
       <c r="C6">
-        <v>0.7060220058656057</v>
+        <v>0.07641877679239428</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3505070441225158</v>
+        <v>0.2588754394626775</v>
       </c>
       <c r="F6">
-        <v>2.260885254034889</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007904770272445875</v>
+        <v>0.0008121048451957722</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07013781138748953</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5904671807134463</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4279173779309033</v>
       </c>
       <c r="N6">
-        <v>0.6381632582246241</v>
+        <v>0.8236626947163099</v>
       </c>
       <c r="O6">
-        <v>0.844851234470724</v>
+        <v>1.251854523564361</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.786738818222659</v>
+        <v>0.6192276263642214</v>
       </c>
       <c r="C7">
-        <v>0.7431536378005035</v>
+        <v>0.07899613886601031</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3659341129637426</v>
+        <v>0.271462608377405</v>
       </c>
       <c r="F7">
-        <v>2.34587860824989</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0007880304782557418</v>
+        <v>0.0008110615159532462</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07239640185159146</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6196378430489631</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4497921610859166</v>
       </c>
       <c r="N7">
-        <v>0.6219220591810166</v>
+        <v>0.8111130587474946</v>
       </c>
       <c r="O7">
-        <v>0.8720768396235528</v>
+        <v>1.252519891889492</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.403722799267825</v>
+        <v>0.7506202761303484</v>
       </c>
       <c r="C8">
-        <v>0.909098367691314</v>
+        <v>0.09035045593930846</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4350484814416049</v>
+        <v>0.3279513717434099</v>
       </c>
       <c r="F8">
-        <v>2.734193904293335</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007775127114133203</v>
+        <v>0.0008066082996321738</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08296950184357144</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7484961709128726</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5471269466951796</v>
       </c>
       <c r="N8">
-        <v>0.553533624855013</v>
+        <v>0.758126488811576</v>
       </c>
       <c r="O8">
-        <v>0.9990883450156929</v>
+        <v>1.261878311787513</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.655812601906291</v>
+        <v>1.010099996014191</v>
       </c>
       <c r="C9">
-        <v>1.245319364619775</v>
+        <v>0.1126016829293519</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5754830594480111</v>
+        <v>0.4430091385229176</v>
       </c>
       <c r="F9">
-        <v>3.55604151445516</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007577629893962729</v>
+        <v>0.0007983949461726143</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1064502386066835</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.002350827429581</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7418897673909655</v>
       </c>
       <c r="N9">
-        <v>0.4325436506639394</v>
+        <v>0.6632941437924345</v>
       </c>
       <c r="O9">
-        <v>1.279095007983358</v>
+        <v>1.305768317269354</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.614395742707416</v>
+        <v>1.202604685927582</v>
       </c>
       <c r="C10">
-        <v>1.502576589324576</v>
+        <v>0.1289985110865928</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6829480259878409</v>
+        <v>0.5310712796742507</v>
       </c>
       <c r="F10">
-        <v>4.210642483448339</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007436504328558177</v>
+        <v>0.0007926544118057442</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1260022222601904</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.19028278579367</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.8883809339568884</v>
       </c>
       <c r="N10">
-        <v>0.3530989063028535</v>
+        <v>0.5996267272019979</v>
       </c>
       <c r="O10">
-        <v>1.510532196399879</v>
+        <v>1.356066849893949</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.062268097160768</v>
+        <v>1.290766640543467</v>
       </c>
       <c r="C11">
-        <v>1.622794395756216</v>
+        <v>0.1364826267364947</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.733109889844016</v>
+        <v>0.5721213732902228</v>
       </c>
       <c r="F11">
-        <v>4.523135864159087</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007372812186911878</v>
+        <v>0.0007901013149279446</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1355615723451749</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.276259822884299</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.9560095899413596</v>
       </c>
       <c r="N11">
-        <v>0.3193886773359793</v>
+        <v>0.5720797706628318</v>
       </c>
       <c r="O11">
-        <v>1.623200512519077</v>
+        <v>1.383461386723269</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.23389407638615</v>
+        <v>1.324252173615207</v>
       </c>
       <c r="C12">
-        <v>1.668870912858267</v>
+        <v>0.1393215428428221</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7523217920509353</v>
+        <v>0.5878284232524322</v>
       </c>
       <c r="F12">
-        <v>4.643943987244114</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007348732190884106</v>
+        <v>0.000789142436633389</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1392933499466196</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.308902153441409</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.9817832570309903</v>
       </c>
       <c r="N12">
-        <v>0.3070104115619359</v>
+        <v>0.5618623348248084</v>
       </c>
       <c r="O12">
-        <v>1.667103451019898</v>
+        <v>1.394537338122063</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.196835475890566</v>
+        <v>1.317035733629098</v>
       </c>
       <c r="C13">
-        <v>1.658921282542053</v>
+        <v>0.1387098952114769</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7481739435398822</v>
+        <v>0.5844380776329672</v>
       </c>
       <c r="F13">
-        <v>4.617809504805336</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007353917115039109</v>
+        <v>0.0007893486035293494</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1384843849280131</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.301868028169309</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.976224767179616</v>
       </c>
       <c r="N13">
-        <v>0.3096584180944038</v>
+        <v>0.5640531508020059</v>
       </c>
       <c r="O13">
-        <v>1.65759003318577</v>
+        <v>1.392119812695569</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.076345203898768</v>
+        <v>1.293519407542163</v>
       </c>
       <c r="C14">
-        <v>1.626573474015856</v>
+        <v>0.1367160815381112</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7346859131849186</v>
+        <v>0.5734102298178385</v>
       </c>
       <c r="F14">
-        <v>4.533023004585573</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007370830545051814</v>
+        <v>0.0007900222713858515</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1358662443653316</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.278943540610328</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.9581265830139571</v>
       </c>
       <c r="N14">
-        <v>0.3183623170040224</v>
+        <v>0.5712348248405332</v>
       </c>
       <c r="O14">
-        <v>1.626786525006537</v>
+        <v>1.384358219419397</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.002815899802783</v>
+        <v>1.279128551482273</v>
       </c>
       <c r="C15">
-        <v>1.606834506499581</v>
+        <v>0.1354954823832628</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7264533979612651</v>
+        <v>0.5666771052439685</v>
       </c>
       <c r="F15">
-        <v>4.4814224979757</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007381194474461446</v>
+        <v>0.0007904359303261277</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1342776484590331</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.264913119437978</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9470629826439136</v>
       </c>
       <c r="N15">
-        <v>0.323745326099189</v>
+        <v>0.5756619986303413</v>
       </c>
       <c r="O15">
-        <v>1.608085354217266</v>
+        <v>1.379697116592752</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.585390855467324</v>
+        <v>1.196856285055475</v>
       </c>
       <c r="C16">
-        <v>1.494791979927072</v>
+        <v>0.128510014772047</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6796982303346937</v>
+        <v>0.5284101472341547</v>
       </c>
       <c r="F16">
-        <v>4.19054578912511</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007440674153736948</v>
+        <v>0.0007928223973035037</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1253922114345301</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.184675002146378</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.8839829803820933</v>
       </c>
       <c r="N16">
-        <v>0.355353939240435</v>
+        <v>0.6014563471979661</v>
       </c>
       <c r="O16">
-        <v>1.503332138866213</v>
+        <v>1.354371835641501</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.332557740273785</v>
+        <v>1.146546907051118</v>
       </c>
       <c r="C17">
-        <v>1.426937148852858</v>
+        <v>0.1242319320916323</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.651364309855083</v>
+        <v>0.5052018585447797</v>
       </c>
       <c r="F17">
-        <v>4.016109356917156</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007477270022681037</v>
+        <v>0.0007943010322366429</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1201224269960193</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.135586145365153</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8455538326306069</v>
       </c>
       <c r="N17">
-        <v>0.3753922457244407</v>
+        <v>0.6176501224769053</v>
       </c>
       <c r="O17">
-        <v>1.441078522545794</v>
+        <v>1.34002826188518</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.188224033104802</v>
+        <v>1.117664873334007</v>
       </c>
       <c r="C18">
-        <v>1.388202745351919</v>
+        <v>0.1217735760571799</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.635185186738795</v>
+        <v>0.4919449820834245</v>
       </c>
       <c r="F18">
-        <v>3.91713865574394</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007498368975156171</v>
+        <v>0.0007951570208662995</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1171528826588144</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.10739630939392</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8235420876776018</v>
       </c>
       <c r="N18">
-        <v>0.3871438841635854</v>
+        <v>0.6270969369594264</v>
       </c>
       <c r="O18">
-        <v>1.405955230297522</v>
+        <v>1.332199642073988</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.139532934279202</v>
+        <v>1.107894832877491</v>
       </c>
       <c r="C19">
-        <v>1.375135780463552</v>
+        <v>0.1209415754460395</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6297265100087799</v>
+        <v>0.4874716388237843</v>
       </c>
       <c r="F19">
-        <v>3.883852463798917</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007505522261630656</v>
+        <v>0.0007954478048210309</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1161575519950304</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.097858972400161</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8161043958937668</v>
       </c>
       <c r="N19">
-        <v>0.3911605630547041</v>
+        <v>0.630317931447216</v>
       </c>
       <c r="O19">
-        <v>1.394175501519953</v>
+        <v>1.329619827092785</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.35935729688191</v>
+        <v>1.15189666719931</v>
       </c>
       <c r="C20">
-        <v>1.434129357736651</v>
+        <v>0.1246870963365865</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6543680868497148</v>
+        <v>0.5076627685416639</v>
       </c>
       <c r="F20">
-        <v>4.034535174394478</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007473369388518933</v>
+        <v>0.0007941430612499881</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1206769299968471</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.140807000052035</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.8496350387055926</v>
       </c>
       <c r="N20">
-        <v>0.3732354736860242</v>
+        <v>0.6159124723895868</v>
       </c>
       <c r="O20">
-        <v>1.447633610347225</v>
+        <v>1.341511170826777</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.111678263535453</v>
+        <v>1.300423864517967</v>
       </c>
       <c r="C21">
-        <v>1.636058991618768</v>
+        <v>0.1373015711069456</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.738641503424418</v>
+        <v>0.5766448053856621</v>
       </c>
       <c r="F21">
-        <v>4.557856602282357</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007365861901639571</v>
+        <v>0.0007898241876525191</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.13663207829768</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.285674595803954</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.9634378194505047</v>
       </c>
       <c r="N21">
-        <v>0.3157949382149856</v>
+        <v>0.5691194984344481</v>
       </c>
       <c r="O21">
-        <v>1.635799135947948</v>
+        <v>1.386618485647233</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.615364020619779</v>
+        <v>1.398088951371676</v>
       </c>
       <c r="C22">
-        <v>1.771307309493579</v>
+        <v>0.1455747476490217</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7950013675094425</v>
+        <v>0.6226848370180846</v>
       </c>
       <c r="F22">
-        <v>4.914502286963824</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.000729580641580403</v>
+        <v>0.0007870475050486647</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1477210946421152</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.380855333762383</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.038782868543123</v>
       </c>
       <c r="N22">
-        <v>0.2805320128111273</v>
+        <v>0.5397903174021179</v>
       </c>
       <c r="O22">
-        <v>1.766092860298727</v>
+        <v>1.420219446684655</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.345317862095385</v>
+        <v>1.345903443400658</v>
       </c>
       <c r="C23">
-        <v>1.698788127169337</v>
+        <v>0.1411561176303024</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7647913573267289</v>
+        <v>0.5980178965949392</v>
       </c>
       <c r="F23">
-        <v>4.722682891318527</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007333189979946091</v>
+        <v>0.0007885254282734679</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1417361296024851</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.330004497237383</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.9984734748561692</v>
       </c>
       <c r="N23">
-        <v>0.2991301369697843</v>
+        <v>0.5553255862097766</v>
       </c>
       <c r="O23">
-        <v>1.695818058992728</v>
+        <v>1.401890320469221</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.34723805380338</v>
+        <v>1.149477912543659</v>
       </c>
       <c r="C24">
-        <v>1.430876906568926</v>
+        <v>0.1244813130268625</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6530097377667659</v>
+        <v>0.5065499251250287</v>
       </c>
       <c r="F24">
-        <v>4.02620079234714</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007475132677101882</v>
+        <v>0.0007942144615217655</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1204260531073729</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.138446553076818</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.8477896726485028</v>
       </c>
       <c r="N24">
-        <v>0.3742098325057686</v>
+        <v>0.6166976386807503</v>
       </c>
       <c r="O24">
-        <v>1.444667990097997</v>
+        <v>1.340839450654215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.311331051601599</v>
+        <v>0.9396341582872196</v>
       </c>
       <c r="C25">
-        <v>1.152857293733007</v>
+        <v>0.1065780181092322</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5368427606037756</v>
+        <v>0.411333719601231</v>
       </c>
       <c r="F25">
-        <v>3.325907998631749</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007630251761498718</v>
+        <v>0.0008005635492345393</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09974417727448071</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9334809833735278</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.6886832086211001</v>
       </c>
       <c r="N25">
-        <v>0.4637315492948437</v>
+        <v>0.6879303325226136</v>
       </c>
       <c r="O25">
-        <v>1.199377135547877</v>
+        <v>1.290914341438651</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7863179295381144</v>
+        <v>0.2859876786626785</v>
       </c>
       <c r="C2">
-        <v>0.0934239417035343</v>
+        <v>0.04072312021581581</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3435151403469092</v>
+        <v>0.1623781245365947</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0008054376530053742</v>
+        <v>0.002434178837647076</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7834642691073981</v>
+        <v>0.2502009591290175</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5737274204153451</v>
+        <v>0.2199625890858385</v>
       </c>
       <c r="N2">
-        <v>0.7443673699072715</v>
+        <v>1.498895749586309</v>
       </c>
       <c r="O2">
-        <v>1.266055705185522</v>
+        <v>2.489369783813288</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6829049422969717</v>
+        <v>0.2554847350227192</v>
       </c>
       <c r="C3">
-        <v>0.08450753760583041</v>
+        <v>0.03780696162064601</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2986778824930525</v>
+        <v>0.1509443028518405</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0008088727963227031</v>
+        <v>0.002436387920974495</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.682118522401808</v>
+        <v>0.2194797068428471</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4968484325130547</v>
+        <v>0.1985684469320503</v>
       </c>
       <c r="N3">
-        <v>0.7849480811598673</v>
+        <v>1.515875854219739</v>
       </c>
       <c r="O3">
-        <v>1.25581327283345</v>
+        <v>2.506379399645269</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6195753607860581</v>
+        <v>0.2367899142745671</v>
       </c>
       <c r="C4">
-        <v>0.07902628435300585</v>
+        <v>0.03600243382960144</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2716103708237014</v>
+        <v>0.144031037560886</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0008110493912554658</v>
+        <v>0.002437816313680426</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6199792185187079</v>
+        <v>0.2005965566013117</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4500485196044082</v>
+        <v>0.185509760858352</v>
       </c>
       <c r="N4">
-        <v>0.8109675006424073</v>
+        <v>1.526841926475684</v>
       </c>
       <c r="O4">
-        <v>1.252531082157518</v>
+        <v>2.518268593841782</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5937997342960273</v>
+        <v>0.2291805798602695</v>
       </c>
       <c r="C5">
-        <v>0.07679023626819514</v>
+        <v>0.03526358635185289</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2606838679470016</v>
+        <v>0.1412405901075644</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008119536426037276</v>
+        <v>0.002438416555589816</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5946693781676657</v>
+        <v>0.192896801381039</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4310647298296146</v>
+        <v>0.1802076871899416</v>
       </c>
       <c r="N5">
-        <v>0.8218410190814645</v>
+        <v>1.531446515049218</v>
       </c>
       <c r="O5">
-        <v>1.251914386663088</v>
+        <v>2.523476722304679</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5895213392749099</v>
+        <v>0.2279176078382363</v>
       </c>
       <c r="C6">
-        <v>0.07641877679239428</v>
+        <v>0.03514069156425847</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2588754394626775</v>
+        <v>0.1407788497103084</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008121048451957722</v>
+        <v>0.0024385173236113</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5904671807134463</v>
+        <v>0.1916179884107265</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4279173779309033</v>
+        <v>0.1793284559832742</v>
       </c>
       <c r="N6">
-        <v>0.8236626947163099</v>
+        <v>1.532219306508812</v>
       </c>
       <c r="O6">
-        <v>1.251854523564361</v>
+        <v>2.524363456951733</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6192276263642214</v>
+        <v>0.2366872553599535</v>
       </c>
       <c r="C7">
-        <v>0.07899613886601031</v>
+        <v>0.03599248355336471</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.271462608377405</v>
+        <v>0.14399329647906</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008110615159532462</v>
+        <v>0.002437824335186248</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6196378430489631</v>
+        <v>0.2004927336419229</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4497921610859166</v>
+        <v>0.1854381765201651</v>
       </c>
       <c r="N7">
-        <v>0.8111130587474946</v>
+        <v>1.526903475640483</v>
       </c>
       <c r="O7">
-        <v>1.252519891889492</v>
+        <v>2.518337362264376</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7506202761303484</v>
+        <v>0.2754634023556832</v>
       </c>
       <c r="C8">
-        <v>0.09035045593930846</v>
+        <v>0.0397205512488128</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3279513717434099</v>
+        <v>0.1584133931235314</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0008066082996321738</v>
+        <v>0.002434925616761951</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7484961709128726</v>
+        <v>0.2396126630197841</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5471269466951796</v>
+        <v>0.2125698068506594</v>
       </c>
       <c r="N8">
-        <v>0.758126488811576</v>
+        <v>1.504638358081538</v>
       </c>
       <c r="O8">
-        <v>1.261878311787513</v>
+        <v>2.494934604476299</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.010099996014191</v>
+        <v>0.3517610686232047</v>
       </c>
       <c r="C9">
-        <v>0.1126016829293519</v>
+        <v>0.04691919054310745</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4430091385229176</v>
+        <v>0.1875509354059588</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007983949461726143</v>
+        <v>0.002429810125902649</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.002350827429581</v>
+        <v>0.3161547087584324</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7418897673909655</v>
+        <v>0.2663926138133306</v>
       </c>
       <c r="N9">
-        <v>0.6632941437924345</v>
+        <v>1.465263066513328</v>
       </c>
       <c r="O9">
-        <v>1.305768317269354</v>
+        <v>2.460520635074545</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.202604685927582</v>
+        <v>0.4079623710004228</v>
       </c>
       <c r="C10">
-        <v>0.1289985110865928</v>
+        <v>0.0521387694426636</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5310712796742507</v>
+        <v>0.2094979550066967</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007926544118057442</v>
+        <v>0.002426395139375846</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.19028278579367</v>
+        <v>0.3722747197723777</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8883809339568884</v>
+        <v>0.3063219057431326</v>
       </c>
       <c r="N10">
-        <v>0.5996267272019979</v>
+        <v>1.438946486429073</v>
       </c>
       <c r="O10">
-        <v>1.356066849893949</v>
+        <v>2.442252415550371</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.290766640543467</v>
+        <v>0.4335592202214116</v>
       </c>
       <c r="C11">
-        <v>0.1364826267364947</v>
+        <v>0.05449808493490593</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5721213732902228</v>
+        <v>0.2196028706177842</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007901013149279446</v>
+        <v>0.00242491539897996</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.276259822884299</v>
+        <v>0.3977781902158881</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9560095899413596</v>
+        <v>0.3245727039548569</v>
       </c>
       <c r="N11">
-        <v>0.5720797706628318</v>
+        <v>1.427541515991413</v>
       </c>
       <c r="O11">
-        <v>1.383461386723269</v>
+        <v>2.435469167220845</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.324252173615207</v>
+        <v>0.4432561700751876</v>
       </c>
       <c r="C12">
-        <v>0.1393215428428221</v>
+        <v>0.05538930023799082</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5878284232524322</v>
+        <v>0.2234469832368831</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.000789142436633389</v>
+        <v>0.002424365610376832</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.308902153441409</v>
+        <v>0.4074316926877657</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9817832570309903</v>
+        <v>0.331496365059003</v>
       </c>
       <c r="N12">
-        <v>0.5618623348248084</v>
+        <v>1.42330425172754</v>
       </c>
       <c r="O12">
-        <v>1.394537338122063</v>
+        <v>2.433120426625351</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.317035733629098</v>
+        <v>0.4411675881766257</v>
       </c>
       <c r="C13">
-        <v>0.1387098952114769</v>
+        <v>0.05519745976182833</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5844380776329672</v>
+        <v>0.2226182990726002</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007893486035293494</v>
+        <v>0.00242448354845054</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.301868028169309</v>
+        <v>0.4053528272548306</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.976224767179616</v>
+        <v>0.3300046756634885</v>
       </c>
       <c r="N13">
-        <v>0.5640531508020059</v>
+        <v>1.424213194148752</v>
       </c>
       <c r="O13">
-        <v>1.392119812695569</v>
+        <v>2.433616483152377</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.293519407542163</v>
+        <v>0.4343569167964176</v>
       </c>
       <c r="C14">
-        <v>0.1367160815381112</v>
+        <v>0.05457145017255982</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5734102298178385</v>
+        <v>0.2199187742772253</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007900222713858515</v>
+        <v>0.002424869956265008</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.278943540610328</v>
+        <v>0.3985724742879029</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9581265830139571</v>
+        <v>0.3251420675868957</v>
       </c>
       <c r="N14">
-        <v>0.5712348248405332</v>
+        <v>1.427191278860347</v>
       </c>
       <c r="O14">
-        <v>1.384358219419397</v>
+        <v>2.435271525280825</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.279128551482273</v>
+        <v>0.4301856895556853</v>
       </c>
       <c r="C15">
-        <v>0.1354954823832628</v>
+        <v>0.0541877128562902</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5666771052439685</v>
+        <v>0.2182675349816918</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007904359303261277</v>
+        <v>0.002425108015449065</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.264913119437978</v>
+        <v>0.3944187654961127</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9470629826439136</v>
+        <v>0.3221652050815393</v>
       </c>
       <c r="N15">
-        <v>0.5756619986303413</v>
+        <v>1.429026064381407</v>
       </c>
       <c r="O15">
-        <v>1.379697116592752</v>
+        <v>2.436313937618678</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.196856285055475</v>
+        <v>0.406290136371382</v>
       </c>
       <c r="C16">
-        <v>0.128510014772047</v>
+        <v>0.05198427581191822</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5284101472341547</v>
+        <v>0.208840027833908</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007928223973035037</v>
+        <v>0.002426493323648085</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.184675002146378</v>
+        <v>0.3706074547569074</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8839829803820933</v>
+        <v>0.3051309193657588</v>
       </c>
       <c r="N16">
-        <v>0.6014563471979661</v>
+        <v>1.439703235576303</v>
       </c>
       <c r="O16">
-        <v>1.354371835641501</v>
+        <v>2.44272647406541</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.146546907051118</v>
+        <v>0.3916385250643373</v>
       </c>
       <c r="C17">
-        <v>0.1242319320916323</v>
+        <v>0.05062864664725453</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5052018585447797</v>
+        <v>0.2030877078185753</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007943010322366429</v>
+        <v>0.002427362020775339</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.135586145365153</v>
+        <v>0.3559930948110264</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8455538326306069</v>
+        <v>0.2947031616056464</v>
       </c>
       <c r="N17">
-        <v>0.6176501224769053</v>
+        <v>1.446398501939584</v>
       </c>
       <c r="O17">
-        <v>1.34002826188518</v>
+        <v>2.447051714601088</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.117664873334007</v>
+        <v>0.3832142106586502</v>
       </c>
       <c r="C18">
-        <v>0.1217735760571799</v>
+        <v>0.04984750569771279</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4919449820834245</v>
+        <v>0.1997905135247535</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007951570208662995</v>
+        <v>0.002427868617207199</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.10739630939392</v>
+        <v>0.3475848964683621</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8235420876776018</v>
+        <v>0.288713557529654</v>
       </c>
       <c r="N18">
-        <v>0.6270969369594264</v>
+        <v>1.450302765832237</v>
       </c>
       <c r="O18">
-        <v>1.332199642073988</v>
+        <v>2.449683191980029</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.107894832877491</v>
+        <v>0.3803623942955028</v>
       </c>
       <c r="C19">
-        <v>0.1209415754460395</v>
+        <v>0.049582782174312</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4874716388237843</v>
+        <v>0.198676090440685</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007954478048210309</v>
+        <v>0.002428041336630339</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.097858972400161</v>
+        <v>0.3447376240358153</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8161043958937668</v>
+        <v>0.2866869829712968</v>
       </c>
       <c r="N19">
-        <v>0.630317931447216</v>
+        <v>1.451633838586583</v>
       </c>
       <c r="O19">
-        <v>1.329619827092785</v>
+        <v>2.450598837597624</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.15189666719931</v>
+        <v>0.3931979165032828</v>
       </c>
       <c r="C20">
-        <v>0.1246870963365865</v>
+        <v>0.0507731027946221</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5076627685416639</v>
+        <v>0.2036988721423825</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007941430612499881</v>
+        <v>0.002427268828086933</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.140807000052035</v>
+        <v>0.3575490701698811</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8496350387055926</v>
+        <v>0.2958123690048353</v>
       </c>
       <c r="N20">
-        <v>0.6159124723895868</v>
+        <v>1.445680260038438</v>
       </c>
       <c r="O20">
-        <v>1.341511170826777</v>
+        <v>2.446576409100885</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.300423864517967</v>
+        <v>0.4363572714515271</v>
       </c>
       <c r="C21">
-        <v>0.1373015711069456</v>
+        <v>0.05475538452328976</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5766448053856621</v>
+        <v>0.2207112110010812</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007898241876525191</v>
+        <v>0.002424756172670195</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.285674595803954</v>
+        <v>0.4005641429789364</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9634378194505047</v>
+        <v>0.3265699947243803</v>
       </c>
       <c r="N21">
-        <v>0.5691194984344481</v>
+        <v>1.426314329297906</v>
       </c>
       <c r="O21">
-        <v>1.386618485647233</v>
+        <v>2.434779427788385</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.398088951371676</v>
+        <v>0.464587399690231</v>
       </c>
       <c r="C22">
-        <v>0.1455747476490217</v>
+        <v>0.05734515969498943</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6226848370180846</v>
+        <v>0.2319324322752152</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007870475050486647</v>
+        <v>0.002423175518649183</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.380855333762383</v>
+        <v>0.4286528489809314</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.038782868543123</v>
+        <v>0.3467446248446748</v>
       </c>
       <c r="N22">
-        <v>0.5397903174021179</v>
+        <v>1.414132951060219</v>
       </c>
       <c r="O22">
-        <v>1.420219446684655</v>
+        <v>2.428351487141327</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.345903443400658</v>
+        <v>0.4495184840217803</v>
       </c>
       <c r="C23">
-        <v>0.1411561176303024</v>
+        <v>0.05596413775444375</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5980178965949392</v>
+        <v>0.2259339993767924</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007885254282734679</v>
+        <v>0.002424013531195471</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.330004497237383</v>
+        <v>0.4136637172819064</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9984734748561692</v>
+        <v>0.3359703880182323</v>
       </c>
       <c r="N23">
-        <v>0.5553255862097766</v>
+        <v>1.420590858380471</v>
       </c>
       <c r="O23">
-        <v>1.401890320469221</v>
+        <v>2.431664778354019</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.149477912543659</v>
+        <v>0.3924929184298662</v>
       </c>
       <c r="C24">
-        <v>0.1244813130268625</v>
+        <v>0.05070779968730221</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5065499251250287</v>
+        <v>0.2034225339583955</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007942144615217655</v>
+        <v>0.002427310938292351</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.138446553076818</v>
+        <v>0.3568456330182528</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8477896726485028</v>
+        <v>0.2953108793579986</v>
       </c>
       <c r="N24">
-        <v>0.6166976386807503</v>
+        <v>1.446004805676379</v>
       </c>
       <c r="O24">
-        <v>1.340839450654215</v>
+        <v>2.446790843573609</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9396341582872196</v>
+        <v>0.3310941464397388</v>
       </c>
       <c r="C25">
-        <v>0.1065780181092322</v>
+        <v>0.04498386430989854</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.411333719601231</v>
+        <v>0.1795748077034958</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008005635492345393</v>
+        <v>0.00243113345597201</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9334809833735278</v>
+        <v>0.295467566071693</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6886832086211001</v>
+        <v>0.2517650430997165</v>
       </c>
       <c r="N25">
-        <v>0.6879303325226136</v>
+        <v>1.475456311039665</v>
       </c>
       <c r="O25">
-        <v>1.290914341438651</v>
+        <v>2.468599792670972</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2859876786626785</v>
+        <v>0.7863179295380007</v>
       </c>
       <c r="C2">
-        <v>0.04072312021581581</v>
+        <v>0.09342394170307955</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1623781245365947</v>
+        <v>0.3435151403469234</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002434178837647076</v>
+        <v>0.0008054376529473161</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2502009591290175</v>
+        <v>0.7834642691074549</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2199625890858385</v>
+        <v>0.573727420415338</v>
       </c>
       <c r="N2">
-        <v>1.498895749586309</v>
+        <v>0.744367369907267</v>
       </c>
       <c r="O2">
-        <v>2.489369783813288</v>
+        <v>1.266055705185551</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2554847350227192</v>
+        <v>0.682904942297057</v>
       </c>
       <c r="C3">
-        <v>0.03780696162064601</v>
+        <v>0.08450753760590146</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1509443028518405</v>
+        <v>0.2986778824930312</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002436387920974495</v>
+        <v>0.0008088727963226524</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2194797068428471</v>
+        <v>0.6821185224018791</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1985684469320503</v>
+        <v>0.4968484325130618</v>
       </c>
       <c r="N3">
-        <v>1.515875854219739</v>
+        <v>0.7849480811598308</v>
       </c>
       <c r="O3">
-        <v>2.506379399645269</v>
+        <v>1.255813272833521</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2367899142745671</v>
+        <v>0.6195753607859729</v>
       </c>
       <c r="C4">
-        <v>0.03600243382960144</v>
+        <v>0.07902628435253689</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.144031037560886</v>
+        <v>0.271610370823673</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002437816313680426</v>
+        <v>0.000811049391255419</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2005965566013117</v>
+        <v>0.6199792185185373</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.185509760858352</v>
+        <v>0.450048519604394</v>
       </c>
       <c r="N4">
-        <v>1.526841926475684</v>
+        <v>0.8109675006424117</v>
       </c>
       <c r="O4">
-        <v>2.518268593841782</v>
+        <v>1.252531082157461</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2291805798602695</v>
+        <v>0.5937997342960273</v>
       </c>
       <c r="C5">
-        <v>0.03526358635185289</v>
+        <v>0.07679023626789672</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1412405901075644</v>
+        <v>0.260683867946959</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002438416555589816</v>
+        <v>0.0008119536425605922</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.192896801381039</v>
+        <v>0.5946693781675236</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1802076871899416</v>
+        <v>0.4310647298296217</v>
       </c>
       <c r="N5">
-        <v>1.531446515049218</v>
+        <v>0.8218410190814618</v>
       </c>
       <c r="O5">
-        <v>2.523476722304679</v>
+        <v>1.251914386663103</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2279176078382363</v>
+        <v>0.5895213392749383</v>
       </c>
       <c r="C6">
-        <v>0.03514069156425847</v>
+        <v>0.07641877679208875</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1407788497103084</v>
+        <v>0.2588754394626704</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0024385173236113</v>
+        <v>0.0008121048452125102</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1916179884107265</v>
+        <v>0.5904671807134605</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1793284559832742</v>
+        <v>0.4279173779309033</v>
       </c>
       <c r="N6">
-        <v>1.532219306508812</v>
+        <v>0.8236626947163765</v>
       </c>
       <c r="O6">
-        <v>2.524363456951733</v>
+        <v>1.251854523564376</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2366872553599535</v>
+        <v>0.6192276263639656</v>
       </c>
       <c r="C7">
-        <v>0.03599248355336471</v>
+        <v>0.0789961388662519</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.14399329647906</v>
+        <v>0.271462608377405</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002437824335186248</v>
+        <v>0.0008110615159533002</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2004927336419229</v>
+        <v>0.6196378430489347</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1854381765201651</v>
+        <v>0.4497921610859095</v>
       </c>
       <c r="N7">
-        <v>1.526903475640483</v>
+        <v>0.8111130587474342</v>
       </c>
       <c r="O7">
-        <v>2.518337362264376</v>
+        <v>1.252519891889435</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2754634023556832</v>
+        <v>0.7506202761302916</v>
       </c>
       <c r="C8">
-        <v>0.0397205512488128</v>
+        <v>0.09035045593915925</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1584133931235314</v>
+        <v>0.327951371743417</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002434925616761951</v>
+        <v>0.0008066082996916514</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2396126630197841</v>
+        <v>0.7484961709127873</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2125698068506594</v>
+        <v>0.5471269466951796</v>
       </c>
       <c r="N8">
-        <v>1.504638358081538</v>
+        <v>0.7581264888115671</v>
       </c>
       <c r="O8">
-        <v>2.494934604476299</v>
+        <v>1.261878311787513</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3517610686232047</v>
+        <v>1.010099996014247</v>
       </c>
       <c r="C9">
-        <v>0.04691919054310745</v>
+        <v>0.1126016829301193</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1875509354059588</v>
+        <v>0.4430091385229176</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002429810125902649</v>
+        <v>0.00079839494623064</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3161547087584324</v>
+        <v>1.002350827429581</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2663926138133306</v>
+        <v>0.7418897673909584</v>
       </c>
       <c r="N9">
-        <v>1.465263066513328</v>
+        <v>0.6632941437924913</v>
       </c>
       <c r="O9">
-        <v>2.460520635074545</v>
+        <v>1.305768317269468</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4079623710004228</v>
+        <v>1.202604685927696</v>
       </c>
       <c r="C10">
-        <v>0.0521387694426636</v>
+        <v>0.1289985110869054</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2094979550066967</v>
+        <v>0.5310712796742862</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002426395139375846</v>
+        <v>0.0007926544118201088</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3722747197723777</v>
+        <v>1.190282785793727</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3063219057431326</v>
+        <v>0.8883809339568813</v>
       </c>
       <c r="N10">
-        <v>1.438946486429073</v>
+        <v>0.5996267272020335</v>
       </c>
       <c r="O10">
-        <v>2.442252415550371</v>
+        <v>1.356066849894006</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4335592202214116</v>
+        <v>1.290766640543637</v>
       </c>
       <c r="C11">
-        <v>0.05449808493490593</v>
+        <v>0.1364826267367363</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2196028706177842</v>
+        <v>0.5721213732902228</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.00242491539897996</v>
+        <v>0.0007901013149124721</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3977781902158881</v>
+        <v>1.276259822884242</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3245727039548569</v>
+        <v>0.9560095899413596</v>
       </c>
       <c r="N11">
-        <v>1.427541515991413</v>
+        <v>0.5720797706628167</v>
       </c>
       <c r="O11">
-        <v>2.435469167220845</v>
+        <v>1.383461386723212</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4432561700751876</v>
+        <v>1.324252173615122</v>
       </c>
       <c r="C12">
-        <v>0.05538930023799082</v>
+        <v>0.1393215428428078</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2234469832368831</v>
+        <v>0.5878284232524038</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002424365610376832</v>
+        <v>0.0007891424366541362</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4074316926877657</v>
+        <v>1.308902153441466</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.331496365059003</v>
+        <v>0.9817832570309832</v>
       </c>
       <c r="N12">
-        <v>1.42330425172754</v>
+        <v>0.5618623348247285</v>
       </c>
       <c r="O12">
-        <v>2.433120426625351</v>
+        <v>1.394537338122063</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4411675881766257</v>
+        <v>1.317035733628956</v>
       </c>
       <c r="C13">
-        <v>0.05519745976182833</v>
+        <v>0.1387098952111501</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2226182990726002</v>
+        <v>0.584438077632953</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.00242448354845054</v>
+        <v>0.0007893486034123443</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4053528272548306</v>
+        <v>1.301868028169309</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3300046756634885</v>
+        <v>0.9762247671796231</v>
       </c>
       <c r="N13">
-        <v>1.424213194148752</v>
+        <v>0.5640531508020743</v>
       </c>
       <c r="O13">
-        <v>2.433616483152377</v>
+        <v>1.392119812695654</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4343569167964176</v>
+        <v>1.293519407542249</v>
       </c>
       <c r="C14">
-        <v>0.05457145017255982</v>
+        <v>0.136716081538097</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2199187742772253</v>
+        <v>0.5734102298178243</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002424869956265008</v>
+        <v>0.000790022271408072</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3985724742879029</v>
+        <v>1.278943540610413</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3251420675868957</v>
+        <v>0.9581265830139571</v>
       </c>
       <c r="N14">
-        <v>1.427191278860347</v>
+        <v>0.5712348248405821</v>
       </c>
       <c r="O14">
-        <v>2.435271525280825</v>
+        <v>1.384358219419454</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4301856895556853</v>
+        <v>1.279128551482245</v>
       </c>
       <c r="C15">
-        <v>0.0541877128562902</v>
+        <v>0.1354954823838312</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2182675349816918</v>
+        <v>0.5666771052439685</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002425108015449065</v>
+        <v>0.0007904359302675093</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3944187654961127</v>
+        <v>1.264913119437949</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3221652050815393</v>
+        <v>0.9470629826439065</v>
       </c>
       <c r="N15">
-        <v>1.429026064381407</v>
+        <v>0.575661998630336</v>
       </c>
       <c r="O15">
-        <v>2.436313937618678</v>
+        <v>1.37969711659278</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.406290136371382</v>
+        <v>1.196856285055333</v>
       </c>
       <c r="C16">
-        <v>0.05198427581191822</v>
+        <v>0.1285100147720328</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.208840027833908</v>
+        <v>0.5284101472341547</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002426493323648085</v>
+        <v>0.0007928223972249293</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3706074547569074</v>
+        <v>1.184675002146378</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3051309193657588</v>
+        <v>0.8839829803820933</v>
       </c>
       <c r="N16">
-        <v>1.439703235576303</v>
+        <v>0.6014563471979582</v>
       </c>
       <c r="O16">
-        <v>2.44272647406541</v>
+        <v>1.354371835641501</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3916385250643373</v>
+        <v>1.146546907051288</v>
       </c>
       <c r="C17">
-        <v>0.05062864664725453</v>
+        <v>0.1242319320918313</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2030877078185753</v>
+        <v>0.5052018585447797</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002427362020775339</v>
+        <v>0.0007943010322376057</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3559930948110264</v>
+        <v>1.135586145365181</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2947031616056464</v>
+        <v>0.8455538326306211</v>
       </c>
       <c r="N17">
-        <v>1.446398501939584</v>
+        <v>0.6176501224768627</v>
       </c>
       <c r="O17">
-        <v>2.447051714601088</v>
+        <v>1.340028261885209</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3832142106586502</v>
+        <v>1.117664873334064</v>
       </c>
       <c r="C18">
-        <v>0.04984750569771279</v>
+        <v>0.1217735760572509</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1997905135247535</v>
+        <v>0.491944982083389</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002427868617207199</v>
+        <v>0.0007951570208291143</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3475848964683621</v>
+        <v>1.107396309393977</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.288713557529654</v>
+        <v>0.8235420876776089</v>
       </c>
       <c r="N18">
-        <v>1.450302765832237</v>
+        <v>0.6270969369594264</v>
       </c>
       <c r="O18">
-        <v>2.449683191980029</v>
+        <v>1.332199642073903</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3803623942955028</v>
+        <v>1.107894832877378</v>
       </c>
       <c r="C19">
-        <v>0.049582782174312</v>
+        <v>0.1209415754463379</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.198676090440685</v>
+        <v>0.4874716388237843</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002428041336630339</v>
+        <v>0.0007954478048797303</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3447376240358153</v>
+        <v>1.097858972400104</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2866869829712968</v>
+        <v>0.8161043958937881</v>
       </c>
       <c r="N19">
-        <v>1.451633838586583</v>
+        <v>0.6303179314472676</v>
       </c>
       <c r="O19">
-        <v>2.450598837597624</v>
+        <v>1.329619827092699</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3931979165032828</v>
+        <v>1.151896667199225</v>
       </c>
       <c r="C20">
-        <v>0.0507731027946221</v>
+        <v>0.124687096336686</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2036988721423825</v>
+        <v>0.5076627685416568</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002427268828086933</v>
+        <v>0.0007941430612308344</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3575490701698811</v>
+        <v>1.140807000052007</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2958123690048353</v>
+        <v>0.8496350387055998</v>
       </c>
       <c r="N20">
-        <v>1.445680260038438</v>
+        <v>0.6159124723895841</v>
       </c>
       <c r="O20">
-        <v>2.446576409100885</v>
+        <v>1.34151117082672</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4363572714515271</v>
+        <v>1.300423864517938</v>
       </c>
       <c r="C21">
-        <v>0.05475538452328976</v>
+        <v>0.1373015711068746</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2207112110010812</v>
+        <v>0.5766448053856763</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002424756172670195</v>
+        <v>0.0007898241875524594</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4005641429789364</v>
+        <v>1.285674595803926</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3265699947243803</v>
+        <v>0.9634378194504762</v>
       </c>
       <c r="N21">
-        <v>1.426314329297906</v>
+        <v>0.5691194984345262</v>
       </c>
       <c r="O21">
-        <v>2.434779427788385</v>
+        <v>1.386618485647205</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.464587399690231</v>
+        <v>1.398088951371648</v>
       </c>
       <c r="C22">
-        <v>0.05734515969498943</v>
+        <v>0.1455747476491354</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2319324322752152</v>
+        <v>0.6226848370180846</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002423175518649183</v>
+        <v>0.0007870475051416912</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4286528489809314</v>
+        <v>1.38085533376227</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3467446248446748</v>
+        <v>1.038782868543109</v>
       </c>
       <c r="N22">
-        <v>1.414132951060219</v>
+        <v>0.5397903174021055</v>
       </c>
       <c r="O22">
-        <v>2.428351487141327</v>
+        <v>1.420219446684627</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4495184840217803</v>
+        <v>1.345903443400658</v>
       </c>
       <c r="C23">
-        <v>0.05596413775444375</v>
+        <v>0.141156117630274</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2259339993767924</v>
+        <v>0.5980178965949392</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002424013531195471</v>
+        <v>0.0007885254283298213</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4136637172819064</v>
+        <v>1.330004497237525</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3359703880182323</v>
+        <v>0.9984734748561763</v>
       </c>
       <c r="N23">
-        <v>1.420590858380471</v>
+        <v>0.5553255862098316</v>
       </c>
       <c r="O23">
-        <v>2.431664778354019</v>
+        <v>1.401890320469249</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3924929184298662</v>
+        <v>1.149477912543773</v>
       </c>
       <c r="C24">
-        <v>0.05070779968730221</v>
+        <v>0.1244813130267914</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2034225339583955</v>
+        <v>0.50654992512505</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002427310938292351</v>
+        <v>0.0007942144615204887</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3568456330182528</v>
+        <v>1.138446553076932</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2953108793579986</v>
+        <v>0.8477896726484815</v>
       </c>
       <c r="N24">
-        <v>1.446004805676379</v>
+        <v>0.6166976386807468</v>
       </c>
       <c r="O24">
-        <v>2.446790843573609</v>
+        <v>1.340839450654187</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3310941464397388</v>
+        <v>0.9396341582871912</v>
       </c>
       <c r="C25">
-        <v>0.04498386430989854</v>
+        <v>0.1065780181093317</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1795748077034958</v>
+        <v>0.4113337196012168</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.00243113345597201</v>
+        <v>0.0008005635492541902</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.295467566071693</v>
+        <v>0.933480983373471</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2517650430997165</v>
+        <v>0.688683208621093</v>
       </c>
       <c r="N25">
-        <v>1.475456311039665</v>
+        <v>0.6879303325225354</v>
       </c>
       <c r="O25">
-        <v>2.468599792670972</v>
+        <v>1.290914341438551</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7863179295380007</v>
+        <v>2.039174430461628</v>
       </c>
       <c r="C2">
-        <v>0.09342394170307955</v>
+        <v>0.5830809817900615</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3435151403469234</v>
+        <v>1.06302536575933</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.049904817782433</v>
       </c>
       <c r="G2">
-        <v>0.0008054376529473161</v>
+        <v>0.21873403391605</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002100474204360658</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006910897153066475</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1945821934105112</v>
       </c>
       <c r="K2">
-        <v>0.7834642691074549</v>
+        <v>0.1333235162601003</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.03859495071762531</v>
       </c>
       <c r="M2">
-        <v>0.573727420415338</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.744367369907267</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.266055705185551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.9329900231422101</v>
+      </c>
+      <c r="Q2">
+        <v>0.8214997881904225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.682904942297057</v>
+        <v>1.778711178781265</v>
       </c>
       <c r="C3">
-        <v>0.08450753760590146</v>
+        <v>0.5184014102790115</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2986778824930312</v>
+        <v>0.9436339732079659</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.848607410323851</v>
       </c>
       <c r="G3">
-        <v>0.0008088727963226524</v>
+        <v>0.2023921232235679</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0008414377308691989</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00533643355538338</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.190878474122492</v>
       </c>
       <c r="K3">
-        <v>0.6821185224018791</v>
+        <v>0.1377865718690234</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.03486084522885946</v>
       </c>
       <c r="M3">
-        <v>0.4968484325130618</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7849480811598308</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.255813272833521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9003379385039665</v>
+      </c>
+      <c r="Q3">
+        <v>0.7788367508828742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6195753607859729</v>
+        <v>1.617972278342052</v>
       </c>
       <c r="C4">
-        <v>0.07902628435253689</v>
+        <v>0.4788659038660512</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.271610370823673</v>
+        <v>0.8704476593235313</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.725754876767496</v>
       </c>
       <c r="G4">
-        <v>0.000811049391255419</v>
+        <v>0.1926373007049378</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0003348401281833002</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004471068567649894</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1888103181283896</v>
       </c>
       <c r="K4">
-        <v>0.6199792185185373</v>
+        <v>0.1407487397005749</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.03256584120049233</v>
       </c>
       <c r="M4">
-        <v>0.450048519604394</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8109675006424117</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.252531082157461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8810041233633115</v>
+      </c>
+      <c r="Q4">
+        <v>0.753657582051332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5937997342960273</v>
+        <v>1.551311015917634</v>
       </c>
       <c r="C5">
-        <v>0.07679023626789672</v>
+        <v>0.4634849545164457</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.260683867946959</v>
+        <v>0.8409054283141302</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.675475655738154</v>
       </c>
       <c r="G5">
-        <v>0.0008119536425605922</v>
+        <v>0.1884496629017676</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0001913143104088633</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.004195013429116212</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1878726262501189</v>
       </c>
       <c r="K5">
-        <v>0.5946693781675236</v>
+        <v>0.1418520026078749</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.03160900208665218</v>
       </c>
       <c r="M5">
-        <v>0.4310647298296217</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8218410190814618</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.251914386663103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8738633780673126</v>
+      </c>
+      <c r="Q5">
+        <v>0.7427457428176467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5895213392749383</v>
+        <v>1.539062047833426</v>
       </c>
       <c r="C6">
-        <v>0.07641877679208875</v>
+        <v>0.4617794052241209</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2588754394626704</v>
+        <v>0.8363205342214428</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.666670712175247</v>
       </c>
       <c r="G6">
-        <v>0.0008121048452125102</v>
+        <v>0.18741908556418</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0001709926415087715</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004222794806706176</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1875433609430388</v>
       </c>
       <c r="K6">
-        <v>0.5904671807134605</v>
+        <v>0.1418464785070963</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.03142560930401039</v>
       </c>
       <c r="M6">
-        <v>0.4279173779309033</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8236626947163765</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.251854523564376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8733804398828795</v>
+      </c>
+      <c r="Q6">
+        <v>0.7398593801600413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6192276263639656</v>
+        <v>1.613874684432858</v>
       </c>
       <c r="C7">
-        <v>0.0789961388662519</v>
+        <v>0.4809754814120879</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.271462608377405</v>
+        <v>0.8709235941999083</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.723803846564053</v>
       </c>
       <c r="G7">
-        <v>0.0008110615159533002</v>
+        <v>0.1916536538160543</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0003319108864370257</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.004650655823223993</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1883156148107901</v>
       </c>
       <c r="K7">
-        <v>0.6196378430489347</v>
+        <v>0.1402399752184103</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.03248612955741237</v>
       </c>
       <c r="M7">
-        <v>0.4497921610859095</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8111130587474342</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.252519891889435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8828123510953105</v>
+      </c>
+      <c r="Q7">
+        <v>0.7505347936647979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7506202761302916</v>
+        <v>1.945258973606769</v>
       </c>
       <c r="C8">
-        <v>0.09035045593915925</v>
+        <v>0.5638365048937146</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.327951371743417</v>
+        <v>1.022992752213327</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.978639797192912</v>
       </c>
       <c r="G8">
-        <v>0.0008066082996916514</v>
+        <v>0.2118085359745052</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001606630089883154</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006565405800977864</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.192624549236136</v>
       </c>
       <c r="K8">
-        <v>0.7484961709127873</v>
+        <v>0.1341276926081569</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.03721780475011016</v>
       </c>
       <c r="M8">
-        <v>0.5471269466951796</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7581264888115671</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.261878311787513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.9241628070683419</v>
+      </c>
+      <c r="Q8">
+        <v>0.8026287416728906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.010099996014247</v>
+        <v>2.594516990580189</v>
       </c>
       <c r="C9">
-        <v>0.1126016829301193</v>
+        <v>0.7237736061057092</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4430091385229176</v>
+        <v>1.32103524757413</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>2.487673666725925</v>
       </c>
       <c r="G9">
-        <v>0.00079839494623064</v>
+        <v>0.2554696559064098</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.006407922977726077</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01094049676256503</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2036806744152813</v>
       </c>
       <c r="K9">
-        <v>1.002350827429581</v>
+        <v>0.124936720870453</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.04665237154981838</v>
       </c>
       <c r="M9">
-        <v>0.7418897673909584</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6632941437924913</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.305768317269468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.007701931626201</v>
+      </c>
+      <c r="Q9">
+        <v>0.918959591837023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.202604685927696</v>
+        <v>3.059747766741566</v>
       </c>
       <c r="C10">
-        <v>0.1289985110869054</v>
+        <v>0.8404227879381949</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5310712796742862</v>
+        <v>1.495977160452867</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.811975122691507</v>
       </c>
       <c r="G10">
-        <v>0.0007926544118201088</v>
+        <v>0.2857785523755467</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0113486705212904</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01485788472519456</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2112659279552247</v>
       </c>
       <c r="K10">
-        <v>1.190282785793727</v>
+        <v>0.1184044150222565</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.05094526280834799</v>
       </c>
       <c r="M10">
-        <v>0.8883809339568813</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5996267272020335</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.356066849894006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.078270994225619</v>
+      </c>
+      <c r="Q10">
+        <v>0.9995132151417465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.290766640543637</v>
+        <v>3.208680231062715</v>
       </c>
       <c r="C11">
-        <v>0.1364826267367363</v>
+        <v>0.8680030500704561</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5721213732902228</v>
+        <v>1.201233002213939</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>2.495605745916933</v>
       </c>
       <c r="G11">
-        <v>0.0007901013149124721</v>
+        <v>0.2710331852962753</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02901156008621442</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01650326530509538</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2009992775017366</v>
       </c>
       <c r="K11">
-        <v>1.276259822884242</v>
+        <v>0.1080152551109812</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.03688494292872146</v>
       </c>
       <c r="M11">
-        <v>0.9560095899413596</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5720797706628167</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.383461386723212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.151694578655366</v>
+      </c>
+      <c r="Q11">
+        <v>0.9468904336168293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.324252173615122</v>
+        <v>3.240418767476001</v>
       </c>
       <c r="C12">
-        <v>0.1393215428428078</v>
+        <v>0.8624516575019072</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5878284232524038</v>
+        <v>0.9455876249476347</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.179822506953556</v>
       </c>
       <c r="G12">
-        <v>0.0007891424366541362</v>
+        <v>0.2536900822945114</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06645914514745499</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01672816379035513</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1913688060864942</v>
       </c>
       <c r="K12">
-        <v>1.308902153441466</v>
+        <v>0.1014979396596623</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.03435908436707891</v>
       </c>
       <c r="M12">
-        <v>0.9817832570309832</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5618623348247285</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.394537338122063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.196721395570918</v>
+      </c>
+      <c r="Q12">
+        <v>0.8899906649307923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.317035733628956</v>
+        <v>3.178532813841684</v>
       </c>
       <c r="C13">
-        <v>0.1387098952111501</v>
+        <v>0.8348684078670203</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.584438077632953</v>
+        <v>0.7078225032602319</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>1.846032772562182</v>
       </c>
       <c r="G13">
-        <v>0.0007893486034123443</v>
+        <v>0.2318890330331556</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1206673136759235</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01614067486837456</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.180892457800752</v>
       </c>
       <c r="K13">
-        <v>1.301868028169309</v>
+        <v>0.09671237388457321</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.04029933411769626</v>
       </c>
       <c r="M13">
-        <v>0.9762247671796231</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5640531508020743</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.392119812695654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.224869247755279</v>
+      </c>
+      <c r="Q13">
+        <v>0.8217921420602607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.293519407542249</v>
+        <v>3.092011260173138</v>
       </c>
       <c r="C14">
-        <v>0.136716081538097</v>
+        <v>0.8064423501920999</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5734102298178243</v>
+        <v>0.5551942004244879</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.608580582438677</v>
       </c>
       <c r="G14">
-        <v>0.000790022271408072</v>
+        <v>0.2145626665364375</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1688788414049043</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01544414407549066</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1731224036263086</v>
       </c>
       <c r="K14">
-        <v>1.278943540610413</v>
+        <v>0.09408131153998589</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04953683866099112</v>
       </c>
       <c r="M14">
-        <v>0.9581265830139571</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5712348248405821</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.384358219419454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.237502254108122</v>
+      </c>
+      <c r="Q14">
+        <v>0.7687249508193759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.279128551482245</v>
+        <v>3.049877923101178</v>
       </c>
       <c r="C15">
-        <v>0.1354954823838312</v>
+        <v>0.7958420142828686</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5666771052439685</v>
+        <v>0.5183282750323883</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>1.544828532363255</v>
       </c>
       <c r="G15">
-        <v>0.0007904359302675093</v>
+        <v>0.2091064818000845</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.180978360484346</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01519618229611464</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1709143828573261</v>
       </c>
       <c r="K15">
-        <v>1.264913119437949</v>
+        <v>0.09365163238346774</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05226087593720763</v>
       </c>
       <c r="M15">
-        <v>0.9470629826439065</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.575661998630336</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.37969711659278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.237645500480937</v>
+      </c>
+      <c r="Q15">
+        <v>0.7525010738323914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.196856285055333</v>
+        <v>2.861629080339981</v>
       </c>
       <c r="C16">
-        <v>0.1285100147720328</v>
+        <v>0.7532892381147462</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5284101472341547</v>
+        <v>0.4992202440034745</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>1.481697083685702</v>
       </c>
       <c r="G16">
-        <v>0.0007928223972249293</v>
+        <v>0.2001635454113355</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1666576528544113</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01370815226243405</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1694836228508763</v>
       </c>
       <c r="K16">
-        <v>1.184675002146378</v>
+        <v>0.09694032535983688</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04916201360009254</v>
       </c>
       <c r="M16">
-        <v>0.8839829803820933</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6014563471979582</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.354371835641501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.200576689848361</v>
+      </c>
+      <c r="Q16">
+        <v>0.7303781389114476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.146546907051288</v>
+        <v>2.763128231771873</v>
       </c>
       <c r="C17">
-        <v>0.1242319320918313</v>
+        <v>0.7358162856721719</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5052018585447797</v>
+        <v>0.5616966389167501</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>1.556261578444762</v>
       </c>
       <c r="G17">
-        <v>0.0007943010322376057</v>
+        <v>0.2024414708780995</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1282251666209078</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01296316269564901</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1725139901755526</v>
       </c>
       <c r="K17">
-        <v>1.135586145365181</v>
+        <v>0.1008707555814095</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.04100152822000069</v>
       </c>
       <c r="M17">
-        <v>0.8455538326306211</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6176501224768627</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.340028261885209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.165888743927312</v>
+      </c>
+      <c r="Q17">
+        <v>0.7414580000317841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.117664873334064</v>
+        <v>2.732952660694139</v>
       </c>
       <c r="C18">
-        <v>0.1217735760572509</v>
+        <v>0.7358473517629704</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.491944982083389</v>
+        <v>0.7171045515159022</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.768538681911366</v>
       </c>
       <c r="G18">
-        <v>0.0007951570208291143</v>
+        <v>0.21538086293058</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07560708216350065</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01251935372290269</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1800472197761849</v>
       </c>
       <c r="K18">
-        <v>1.107396309393977</v>
+        <v>0.106171009771721</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03235327685300859</v>
       </c>
       <c r="M18">
-        <v>0.8235420876776089</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6270969369594264</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.332199642073903</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.127672282526206</v>
+      </c>
+      <c r="Q18">
+        <v>0.784625308017155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.107894832877378</v>
+        <v>2.753462859699198</v>
       </c>
       <c r="C19">
-        <v>0.1209415754463379</v>
+        <v>0.7544624609186883</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4874716388237843</v>
+        <v>0.9627204522110731</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.091520773968213</v>
       </c>
       <c r="G19">
-        <v>0.0007954478048797303</v>
+        <v>0.2347701138843945</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03157930704826839</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01281404111919482</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.189935677184188</v>
       </c>
       <c r="K19">
-        <v>1.097858972400104</v>
+        <v>0.1115690197025021</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.03114789764722925</v>
       </c>
       <c r="M19">
-        <v>0.8161043958937881</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6303179314472676</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.329619827092699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.094110317123835</v>
+      </c>
+      <c r="Q19">
+        <v>0.8464491240466145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.151896667199225</v>
+        <v>2.927319479085725</v>
       </c>
       <c r="C20">
-        <v>0.124687096336686</v>
+        <v>0.81702665269367</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5076627685416568</v>
+        <v>1.450802864293607</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.720178612161334</v>
       </c>
       <c r="G20">
-        <v>0.0007941430612308344</v>
+        <v>0.2746557533123379</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.009895280833194686</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01439288787672144</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2076359960290972</v>
       </c>
       <c r="K20">
-        <v>1.140807000052007</v>
+        <v>0.1184208535001474</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.04948536173366591</v>
       </c>
       <c r="M20">
-        <v>0.8496350387055998</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6159124723895841</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.34151117082672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.066031368837443</v>
+      </c>
+      <c r="Q20">
+        <v>0.9682242539184926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.300423864517938</v>
+        <v>3.295212236960253</v>
       </c>
       <c r="C21">
-        <v>0.1373015711068746</v>
+        <v>0.9107408540441781</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5766448053856763</v>
+        <v>1.656252145181568</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>3.057107835705068</v>
       </c>
       <c r="G21">
-        <v>0.0007898241875524594</v>
+        <v>0.304174273663989</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01469712869285533</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01763517473499387</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2165803794887324</v>
       </c>
       <c r="K21">
-        <v>1.285674595803926</v>
+        <v>0.1154829213529069</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.05704916523508885</v>
       </c>
       <c r="M21">
-        <v>0.9634378194504762</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5691194984345262</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.386618485647205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.11397746513569</v>
+      </c>
+      <c r="Q21">
+        <v>1.049850981194112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.398088951371648</v>
+        <v>3.536075024181059</v>
       </c>
       <c r="C22">
-        <v>0.1455747476491354</v>
+        <v>0.967501331083696</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6226848370180846</v>
+        <v>1.766458414486522</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>3.252687876836774</v>
       </c>
       <c r="G22">
-        <v>0.0007870475051416912</v>
+        <v>0.3235227330204111</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01809579220613533</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01963396154714125</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2225453347952708</v>
       </c>
       <c r="K22">
-        <v>1.38085533376227</v>
+        <v>0.1140836617493282</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.060755042058112</v>
       </c>
       <c r="M22">
-        <v>1.038782868543109</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5397903174021055</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.420219446684627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.145578145851999</v>
+      </c>
+      <c r="Q22">
+        <v>1.103559333193346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.345903443400658</v>
+        <v>3.41148122331424</v>
       </c>
       <c r="C23">
-        <v>0.141156117630274</v>
+        <v>0.934329821725953</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5980178965949392</v>
+        <v>1.706534280439101</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>3.149662630562148</v>
       </c>
       <c r="G23">
-        <v>0.0007885254283298213</v>
+        <v>0.314248220277932</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01624898789490881</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01831234611297017</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2198973356539256</v>
       </c>
       <c r="K23">
-        <v>1.330004497237525</v>
+        <v>0.1153953737234552</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.05885547102943889</v>
       </c>
       <c r="M23">
-        <v>0.9984734748561763</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5553255862098316</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.401890320469249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.12617145057915</v>
+      </c>
+      <c r="Q23">
+        <v>1.07824678671102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.149477912543773</v>
+        <v>2.932339128209776</v>
       </c>
       <c r="C24">
-        <v>0.1244813130267914</v>
+        <v>0.8138336132905977</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.50654992512505</v>
+        <v>1.482238821320337</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.760420600319037</v>
       </c>
       <c r="G24">
-        <v>0.0007942144615204887</v>
+        <v>0.2783782725336721</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01003799807916403</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01400438155889017</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2095643968530538</v>
       </c>
       <c r="K24">
-        <v>1.138446553076932</v>
+        <v>0.1200304652106414</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.05162035317217928</v>
       </c>
       <c r="M24">
-        <v>0.8477896726484815</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6166976386807468</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.340839450654187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.058284107898899</v>
+      </c>
+      <c r="Q24">
+        <v>0.9801536672267162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9396341582871912</v>
+        <v>2.413635989963325</v>
       </c>
       <c r="C25">
-        <v>0.1065780181093317</v>
+        <v>0.6845843966619043</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4113337196012168</v>
+        <v>1.241790683532486</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>2.346734339976834</v>
       </c>
       <c r="G25">
-        <v>0.0008005635492541902</v>
+        <v>0.2416738833927496</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004831763343625117</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.009975653949817698</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1996199395902778</v>
       </c>
       <c r="K25">
-        <v>0.933480983373471</v>
+        <v>0.1262822658336322</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.04396482504092347</v>
       </c>
       <c r="M25">
-        <v>0.688683208621093</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6879303325225354</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.290914341438551</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.988055343743099</v>
+      </c>
+      <c r="Q25">
+        <v>0.8810476101592712</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.039174430461628</v>
+        <v>2.010314457462812</v>
       </c>
       <c r="C2">
-        <v>0.5830809817900615</v>
+        <v>0.5962265802305922</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.06302536575933</v>
+        <v>1.067349116031565</v>
       </c>
       <c r="F2">
-        <v>2.049904817782433</v>
+        <v>2.039977429412986</v>
       </c>
       <c r="G2">
-        <v>0.21873403391605</v>
+        <v>0.1982464422905039</v>
       </c>
       <c r="H2">
-        <v>0.002100474204360658</v>
+        <v>0.001984221004454723</v>
       </c>
       <c r="I2">
-        <v>0.006910897153066475</v>
+        <v>0.006604919237090279</v>
       </c>
       <c r="J2">
-        <v>0.1945821934105112</v>
+        <v>0.2361304822102426</v>
       </c>
       <c r="K2">
-        <v>0.1333235162601003</v>
+        <v>0.1306003268975342</v>
       </c>
       <c r="L2">
-        <v>0.03859495071762531</v>
+        <v>0.0981169909004258</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01807427143171214</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03827082688847483</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9329900231422101</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8214997881904225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.95205231787115</v>
+      </c>
+      <c r="S2">
+        <v>0.8073604725964998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.778711178781265</v>
+        <v>1.759243974031563</v>
       </c>
       <c r="C3">
-        <v>0.5184014102790115</v>
+        <v>0.5249109735345598</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9436339732079659</v>
+        <v>0.9462792154028818</v>
       </c>
       <c r="F3">
-        <v>1.848607410323851</v>
+        <v>1.841974098146494</v>
       </c>
       <c r="G3">
-        <v>0.2023921232235679</v>
+        <v>0.183428517114649</v>
       </c>
       <c r="H3">
-        <v>0.0008414377308691989</v>
+        <v>0.0007836788142483453</v>
       </c>
       <c r="I3">
-        <v>0.00533643355538338</v>
+        <v>0.005231776018616241</v>
       </c>
       <c r="J3">
-        <v>0.190878474122492</v>
+        <v>0.2321891383482395</v>
       </c>
       <c r="K3">
-        <v>0.1377865718690234</v>
+        <v>0.1355068106494581</v>
       </c>
       <c r="L3">
-        <v>0.03486084522885946</v>
+        <v>0.1030024952193465</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01803854539272809</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.03465925221070165</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9003379385039665</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.7788367508828742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9128031573157358</v>
+      </c>
+      <c r="S3">
+        <v>0.7706770628869037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.617972278342052</v>
+        <v>1.604037834443176</v>
       </c>
       <c r="C4">
-        <v>0.4788659038660512</v>
+        <v>0.4814535724107145</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8704476593235313</v>
+        <v>0.8721229172336109</v>
       </c>
       <c r="F4">
-        <v>1.725754876767496</v>
+        <v>1.721038271363156</v>
       </c>
       <c r="G4">
-        <v>0.1926373007049378</v>
+        <v>0.1745848213668637</v>
       </c>
       <c r="H4">
-        <v>0.0003348401281833002</v>
+        <v>0.000304744197082929</v>
       </c>
       <c r="I4">
-        <v>0.004471068567649894</v>
+        <v>0.004476177087073374</v>
       </c>
       <c r="J4">
-        <v>0.1888103181283896</v>
+        <v>0.2298388855890181</v>
       </c>
       <c r="K4">
-        <v>0.1407487397005749</v>
+        <v>0.1386871148264461</v>
       </c>
       <c r="L4">
-        <v>0.03256584120049233</v>
+        <v>0.1062129149442814</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01843704353341558</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.03243559006304686</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8810041233633115</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.753657582051332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8895272390067106</v>
+      </c>
+      <c r="S4">
+        <v>0.7488775391224891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.551311015917634</v>
+        <v>1.539575003668773</v>
       </c>
       <c r="C5">
-        <v>0.4634849545164457</v>
+        <v>0.4645243842862499</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8409054283141302</v>
+        <v>0.8422024357452216</v>
       </c>
       <c r="F5">
-        <v>1.675475655738154</v>
+        <v>1.671513943315503</v>
       </c>
       <c r="G5">
-        <v>0.1884496629017676</v>
+        <v>0.1707669118896149</v>
       </c>
       <c r="H5">
-        <v>0.0001913143104088633</v>
+        <v>0.0001705914201524106</v>
       </c>
       <c r="I5">
-        <v>0.004195013429116212</v>
+        <v>0.004254663551289894</v>
       </c>
       <c r="J5">
-        <v>0.1878726262501189</v>
+        <v>0.2287474413669841</v>
       </c>
       <c r="K5">
-        <v>0.1418520026078749</v>
+        <v>0.1398700878965613</v>
       </c>
       <c r="L5">
-        <v>0.03160900208665218</v>
+        <v>0.1074759915739509</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01868384866284289</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.03150697354070431</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8738633780673126</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7427457428176467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8808162758005551</v>
+      </c>
+      <c r="S5">
+        <v>0.7392765337393143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.539062047833426</v>
+        <v>1.527689100633012</v>
       </c>
       <c r="C6">
-        <v>0.4617794052241209</v>
+        <v>0.4625786986832168</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8363205342214428</v>
+        <v>0.8375578292275776</v>
       </c>
       <c r="F6">
-        <v>1.666670712175247</v>
+        <v>1.662832023139515</v>
       </c>
       <c r="G6">
-        <v>0.18741908556418</v>
+        <v>0.1698035848631037</v>
       </c>
       <c r="H6">
-        <v>0.0001709926415087715</v>
+        <v>0.0001517316388952583</v>
       </c>
       <c r="I6">
-        <v>0.004222794806706176</v>
+        <v>0.004308692494897848</v>
       </c>
       <c r="J6">
-        <v>0.1875433609430388</v>
+        <v>0.2283835262610978</v>
       </c>
       <c r="K6">
-        <v>0.1418464785070963</v>
+        <v>0.1398820401328518</v>
       </c>
       <c r="L6">
-        <v>0.03142560930401039</v>
+        <v>0.1075697961897877</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01870594811056581</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03132833258794676</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8733804398828795</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7398593801600413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.880084785420479</v>
+      </c>
+      <c r="S6">
+        <v>0.7366093906717737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.613874684432858</v>
+        <v>1.59884120324233</v>
       </c>
       <c r="C7">
-        <v>0.4809754814120879</v>
+        <v>0.4828582783560762</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8709235941999083</v>
+        <v>0.8731988616486177</v>
       </c>
       <c r="F7">
-        <v>1.723803846564053</v>
+        <v>1.718215141391369</v>
       </c>
       <c r="G7">
-        <v>0.1916536538160543</v>
+        <v>0.1759341116774138</v>
       </c>
       <c r="H7">
-        <v>0.0003319108864370257</v>
+        <v>0.0003013564049203499</v>
       </c>
       <c r="I7">
-        <v>0.004650655823223993</v>
+        <v>0.004696441077086</v>
       </c>
       <c r="J7">
-        <v>0.1883156148107901</v>
+        <v>0.225876311799837</v>
       </c>
       <c r="K7">
-        <v>0.1402399752184103</v>
+        <v>0.1380256695813635</v>
       </c>
       <c r="L7">
-        <v>0.03248612955741237</v>
+        <v>0.1058117652301824</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01833378651356066</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.0323116985602887</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8828123510953105</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7505347936647979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8920456244426305</v>
+      </c>
+      <c r="S7">
+        <v>0.7437989485105305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.945258973606769</v>
+        <v>1.91590273837744</v>
       </c>
       <c r="C8">
-        <v>0.5638365048937146</v>
+        <v>0.5722868133662757</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.022992752213327</v>
+        <v>1.028747173620403</v>
       </c>
       <c r="F8">
-        <v>1.978639797192912</v>
+        <v>1.966931091739255</v>
       </c>
       <c r="G8">
-        <v>0.2118085359745052</v>
+        <v>0.1996311887849274</v>
       </c>
       <c r="H8">
-        <v>0.001606630089883154</v>
+        <v>0.001508011200907378</v>
       </c>
       <c r="I8">
-        <v>0.006565405800977864</v>
+        <v>0.00637012757799571</v>
       </c>
       <c r="J8">
-        <v>0.192624549236136</v>
+        <v>0.2228862637174061</v>
       </c>
       <c r="K8">
-        <v>0.1341276926081569</v>
+        <v>0.1310516508599644</v>
       </c>
       <c r="L8">
-        <v>0.03721780475011016</v>
+        <v>0.09910663784640228</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0176916604164985</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.03678726772880481</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9241628070683419</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8026287416728906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9433830206029938</v>
+      </c>
+      <c r="S8">
+        <v>0.784052111941179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.594516990580189</v>
+        <v>2.539223363880069</v>
       </c>
       <c r="C9">
-        <v>0.7237736061057092</v>
+        <v>0.7488580404769891</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.32103524757413</v>
+        <v>1.33189895982855</v>
       </c>
       <c r="F9">
-        <v>2.487673666725925</v>
+        <v>2.466265738134439</v>
       </c>
       <c r="G9">
-        <v>0.2554696559064098</v>
+        <v>0.2415342684653936</v>
       </c>
       <c r="H9">
-        <v>0.006407922977726077</v>
+        <v>0.006103994778990041</v>
       </c>
       <c r="I9">
-        <v>0.01094049676256503</v>
+        <v>0.01008961949624787</v>
       </c>
       <c r="J9">
-        <v>0.2036806744152813</v>
+        <v>0.2306348303324484</v>
       </c>
       <c r="K9">
-        <v>0.124936720870453</v>
+        <v>0.1202861276029701</v>
       </c>
       <c r="L9">
-        <v>0.04665237154981838</v>
+        <v>0.08848041029048836</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02012750758327719</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.0458475539632186</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.007701931626201</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.918959591837023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.044713458331643</v>
+      </c>
+      <c r="S9">
+        <v>0.8818726755850861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.059747766741566</v>
+        <v>2.977917848911602</v>
       </c>
       <c r="C10">
-        <v>0.8404227879381949</v>
+        <v>0.8735766209898088</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.495977160452867</v>
+        <v>1.514050160927496</v>
       </c>
       <c r="F10">
-        <v>2.811975122691507</v>
+        <v>2.778176287630259</v>
       </c>
       <c r="G10">
-        <v>0.2857785523755467</v>
+        <v>0.284712776200152</v>
       </c>
       <c r="H10">
-        <v>0.0113486705212904</v>
+        <v>0.01083180320571264</v>
       </c>
       <c r="I10">
-        <v>0.01485788472519456</v>
+        <v>0.01341912254795563</v>
       </c>
       <c r="J10">
-        <v>0.2112659279552247</v>
+        <v>0.2168073328921594</v>
       </c>
       <c r="K10">
-        <v>0.1184044150222565</v>
+        <v>0.1115753030170676</v>
       </c>
       <c r="L10">
-        <v>0.05094526280834799</v>
+        <v>0.08108705614757117</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02325706142028672</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.0497011694130034</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1.078270994225619</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9995132151417465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.133179783291638</v>
+      </c>
+      <c r="S10">
+        <v>0.9365051854299082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.208680231062715</v>
+        <v>3.108346784363448</v>
       </c>
       <c r="C11">
-        <v>0.8680030500704561</v>
+        <v>0.8930521895813968</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.201233002213939</v>
+        <v>1.223654717752993</v>
       </c>
       <c r="F11">
-        <v>2.495605745916933</v>
+        <v>2.453337314114648</v>
       </c>
       <c r="G11">
-        <v>0.2710331852962753</v>
+        <v>0.3013158291070397</v>
       </c>
       <c r="H11">
-        <v>0.02901156008621442</v>
+        <v>0.02845819630788782</v>
       </c>
       <c r="I11">
-        <v>0.01650326530509538</v>
+        <v>0.0148877599568582</v>
       </c>
       <c r="J11">
-        <v>0.2009992775017366</v>
+        <v>0.1737980106224839</v>
       </c>
       <c r="K11">
-        <v>0.1080152551109812</v>
+        <v>0.1003472261651392</v>
       </c>
       <c r="L11">
-        <v>0.03688494292872146</v>
+        <v>0.07562059963032564</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02147273348627721</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.03646082829786579</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.151694578655366</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9468904336168293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.221471269606738</v>
+      </c>
+      <c r="S11">
+        <v>0.8611194086426366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.240418767476001</v>
+        <v>3.134397486824469</v>
       </c>
       <c r="C12">
-        <v>0.8624516575019072</v>
+        <v>0.8815635666486799</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9455876249476347</v>
+        <v>0.9671042533223471</v>
       </c>
       <c r="F12">
-        <v>2.179822506953556</v>
+        <v>2.136965844215197</v>
       </c>
       <c r="G12">
-        <v>0.2536900822945114</v>
+        <v>0.2982259481471914</v>
       </c>
       <c r="H12">
-        <v>0.06645914514745499</v>
+        <v>0.06592422627868189</v>
       </c>
       <c r="I12">
-        <v>0.01672816379035513</v>
+        <v>0.01503437165754029</v>
       </c>
       <c r="J12">
-        <v>0.1913688060864942</v>
+        <v>0.1542640593648983</v>
       </c>
       <c r="K12">
-        <v>0.1014979396596623</v>
+        <v>0.0941799593211794</v>
       </c>
       <c r="L12">
-        <v>0.03435908436707891</v>
+        <v>0.07314464108713103</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01971358265992329</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.03510719198500656</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.196721395570918</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.8899906649307923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.272434939781022</v>
+      </c>
+      <c r="S12">
+        <v>0.798387693244706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.178532813841684</v>
+        <v>3.079635769132096</v>
       </c>
       <c r="C13">
-        <v>0.8348684078670203</v>
+        <v>0.8513980592106236</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7078225032602319</v>
+        <v>0.7242488366393189</v>
       </c>
       <c r="F13">
-        <v>1.846032772562182</v>
+        <v>1.809546854911574</v>
       </c>
       <c r="G13">
-        <v>0.2318890330331556</v>
+        <v>0.272076316924327</v>
       </c>
       <c r="H13">
-        <v>0.1206673136759235</v>
+        <v>0.1201955719753727</v>
       </c>
       <c r="I13">
-        <v>0.01614067486837456</v>
+        <v>0.01453899554469196</v>
       </c>
       <c r="J13">
-        <v>0.180892457800752</v>
+        <v>0.1511276763246698</v>
       </c>
       <c r="K13">
-        <v>0.09671237388457321</v>
+        <v>0.09088537630950633</v>
       </c>
       <c r="L13">
-        <v>0.04029933411769626</v>
+        <v>0.0722626308410339</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01777352984416858</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0421523705187461</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.224869247755279</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8217921420602607</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.297292531241837</v>
+      </c>
+      <c r="S13">
+        <v>0.7406961226816264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.092011260173138</v>
+        <v>3.003681697583261</v>
       </c>
       <c r="C14">
-        <v>0.8064423501920999</v>
+        <v>0.8225643992771552</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5551942004244879</v>
+        <v>0.5669265452702206</v>
       </c>
       <c r="F14">
-        <v>1.608580582438677</v>
+        <v>1.578944413476677</v>
       </c>
       <c r="G14">
-        <v>0.2145626665364375</v>
+        <v>0.2443578992345863</v>
       </c>
       <c r="H14">
-        <v>0.1688788414049043</v>
+        <v>0.1684658069951865</v>
       </c>
       <c r="I14">
-        <v>0.01544414407549066</v>
+        <v>0.01399530474128063</v>
       </c>
       <c r="J14">
-        <v>0.1731224036263086</v>
+        <v>0.1550955539185424</v>
       </c>
       <c r="K14">
-        <v>0.09408131153998589</v>
+        <v>0.08969867695876488</v>
       </c>
       <c r="L14">
-        <v>0.04953683866099112</v>
+        <v>0.0722298978188376</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01634149246106986</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05191831331923424</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.237502254108122</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7687249508193759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.30339575827746</v>
+      </c>
+      <c r="S14">
+        <v>0.7014164866278634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.049877923101178</v>
+        <v>2.966560594317855</v>
       </c>
       <c r="C15">
-        <v>0.7958420142828686</v>
+        <v>0.8124218533476153</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5183282750323883</v>
+        <v>0.528453192880562</v>
       </c>
       <c r="F15">
-        <v>1.544828532363255</v>
+        <v>1.517886848862915</v>
       </c>
       <c r="G15">
-        <v>0.2091064818000845</v>
+        <v>0.2333701716003773</v>
       </c>
       <c r="H15">
-        <v>0.180978360484346</v>
+        <v>0.1805891287253587</v>
       </c>
       <c r="I15">
-        <v>0.01519618229611464</v>
+        <v>0.01384204596456051</v>
       </c>
       <c r="J15">
-        <v>0.1709143828573261</v>
+        <v>0.1587649715513209</v>
       </c>
       <c r="K15">
-        <v>0.09365163238346774</v>
+        <v>0.08980900606563047</v>
       </c>
       <c r="L15">
-        <v>0.05226087593720763</v>
+        <v>0.0724553481787491</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01590526520795166</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05466584052904011</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.237645500480937</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7525010738323914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.300147212880432</v>
+      </c>
+      <c r="S15">
+        <v>0.6913433466560974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.861629080339981</v>
+        <v>2.799039954457669</v>
       </c>
       <c r="C16">
-        <v>0.7532892381147462</v>
+        <v>0.7737654749036267</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4992202440034745</v>
+        <v>0.5048819231914621</v>
       </c>
       <c r="F16">
-        <v>1.481697083685702</v>
+        <v>1.463906453648704</v>
       </c>
       <c r="G16">
-        <v>0.2001635454113355</v>
+        <v>0.2001329970815817</v>
       </c>
       <c r="H16">
-        <v>0.1666576528544113</v>
+        <v>0.1663627336601223</v>
       </c>
       <c r="I16">
-        <v>0.01370815226243405</v>
+        <v>0.01269206937951584</v>
       </c>
       <c r="J16">
-        <v>0.1694836228508763</v>
+        <v>0.1845835787229078</v>
       </c>
       <c r="K16">
-        <v>0.09694032535983688</v>
+        <v>0.09460306784628969</v>
       </c>
       <c r="L16">
-        <v>0.04916201360009254</v>
+        <v>0.07513585822108304</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01548355640955723</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05087358203992665</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.200576689848361</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7303781389114476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.247695015424128</v>
+      </c>
+      <c r="S16">
+        <v>0.6928443080249309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.763128231771873</v>
+        <v>2.708888710333667</v>
       </c>
       <c r="C17">
-        <v>0.7358162856721719</v>
+        <v>0.7583577413086573</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5616966389167501</v>
+        <v>0.5662550617061015</v>
       </c>
       <c r="F17">
-        <v>1.556261578444762</v>
+        <v>1.54148139842178</v>
       </c>
       <c r="G17">
-        <v>0.2024414708780995</v>
+        <v>0.1922661032050925</v>
       </c>
       <c r="H17">
-        <v>0.1282251666209078</v>
+        <v>0.1279686117823644</v>
       </c>
       <c r="I17">
-        <v>0.01296316269564901</v>
+        <v>0.01211509365924357</v>
       </c>
       <c r="J17">
-        <v>0.1725139901755526</v>
+        <v>0.2003888687801521</v>
       </c>
       <c r="K17">
-        <v>0.1008707555814095</v>
+        <v>0.09886707867566713</v>
       </c>
       <c r="L17">
-        <v>0.04100152822000069</v>
+        <v>0.07737453800215466</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01581724495386094</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04220987392161746</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.165888743927312</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7414580000317841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.206409351825101</v>
+      </c>
+      <c r="S17">
+        <v>0.7127595295795146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.732952660694139</v>
+        <v>2.680237550345907</v>
       </c>
       <c r="C18">
-        <v>0.7358473517629704</v>
+        <v>0.7607398294831285</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7171045515159022</v>
+        <v>0.7223730664097161</v>
       </c>
       <c r="F18">
-        <v>1.768538681911366</v>
+        <v>1.753465246866199</v>
       </c>
       <c r="G18">
-        <v>0.21538086293058</v>
+        <v>0.2002076982914502</v>
       </c>
       <c r="H18">
-        <v>0.07560708216350065</v>
+        <v>0.07535020088047162</v>
       </c>
       <c r="I18">
-        <v>0.01251935372290269</v>
+        <v>0.01167951241875809</v>
       </c>
       <c r="J18">
-        <v>0.1800472197761849</v>
+        <v>0.2132953603984831</v>
       </c>
       <c r="K18">
-        <v>0.106171009771721</v>
+        <v>0.1037718918079484</v>
       </c>
       <c r="L18">
-        <v>0.03235327685300859</v>
+        <v>0.07968638365336655</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01698616127269048</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.03308027344019848</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.127672282526206</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.784625308017155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.166165859192105</v>
+      </c>
+      <c r="S18">
+        <v>0.7570825100495853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.753462859699198</v>
+        <v>2.697868008782962</v>
       </c>
       <c r="C19">
-        <v>0.7544624609186883</v>
+        <v>0.7826018002376713</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9627204522110731</v>
+        <v>0.9700123871108417</v>
       </c>
       <c r="F19">
-        <v>2.091520773968213</v>
+        <v>2.073914235772151</v>
       </c>
       <c r="G19">
-        <v>0.2347701138843945</v>
+        <v>0.2170864471145109</v>
       </c>
       <c r="H19">
-        <v>0.03157930704826839</v>
+        <v>0.03128559850028978</v>
       </c>
       <c r="I19">
-        <v>0.01281404111919482</v>
+        <v>0.01197300887250474</v>
       </c>
       <c r="J19">
-        <v>0.189935677184188</v>
+        <v>0.2242462517925077</v>
       </c>
       <c r="K19">
-        <v>0.1115690197025021</v>
+        <v>0.108347584070474</v>
       </c>
       <c r="L19">
-        <v>0.03114789764722925</v>
+        <v>0.08165642590505584</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01854987980560097</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.03132486534591417</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.094110317123835</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8464491240466145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.133530639676522</v>
+      </c>
+      <c r="S19">
+        <v>0.8153447183848357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.927319479085725</v>
+        <v>2.856896422955515</v>
       </c>
       <c r="C20">
-        <v>0.81702665269367</v>
+        <v>0.8509780286748025</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.450802864293607</v>
+        <v>1.464769097381364</v>
       </c>
       <c r="F20">
-        <v>2.720178612161334</v>
+        <v>2.692914522297343</v>
       </c>
       <c r="G20">
-        <v>0.2746557533123379</v>
+        <v>0.2615807152095613</v>
       </c>
       <c r="H20">
-        <v>0.009895280833194686</v>
+        <v>0.00945038324194325</v>
       </c>
       <c r="I20">
-        <v>0.01439288787672144</v>
+        <v>0.0133074233656707</v>
       </c>
       <c r="J20">
-        <v>0.2076359960290972</v>
+        <v>0.2301875224844139</v>
       </c>
       <c r="K20">
-        <v>0.1184208535001474</v>
+        <v>0.1129006243651247</v>
       </c>
       <c r="L20">
-        <v>0.04948536173366591</v>
+        <v>0.08260450606071856</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02195953636146974</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.04852343542978765</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1.066031368837443</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9682242539184926</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.113648695416728</v>
+      </c>
+      <c r="S20">
+        <v>0.9195928751402249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.295212236960253</v>
+        <v>3.180572321128238</v>
       </c>
       <c r="C21">
-        <v>0.9107408540441781</v>
+        <v>0.9372231709287462</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.656252145181568</v>
+        <v>1.688636266103401</v>
       </c>
       <c r="F21">
-        <v>3.057107835705068</v>
+        <v>3.001958126271603</v>
       </c>
       <c r="G21">
-        <v>0.304174273663989</v>
+        <v>0.3490437303729266</v>
       </c>
       <c r="H21">
-        <v>0.01469712869285533</v>
+        <v>0.01398635999297038</v>
       </c>
       <c r="I21">
-        <v>0.01763517473499387</v>
+        <v>0.01587709649059033</v>
       </c>
       <c r="J21">
-        <v>0.2165803794887324</v>
+        <v>0.1707853605857892</v>
       </c>
       <c r="K21">
-        <v>0.1154829213529069</v>
+        <v>0.1050466618925547</v>
       </c>
       <c r="L21">
-        <v>0.05704916523508885</v>
+        <v>0.07694657589397025</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02421713374031675</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.05466514226023733</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1.11397746513569</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.049850981194112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.190895969150418</v>
+      </c>
+      <c r="S21">
+        <v>0.9418788598684671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.536075024181059</v>
+        <v>3.390263253192245</v>
       </c>
       <c r="C22">
-        <v>0.967501331083696</v>
+        <v>0.9875409661653407</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.766458414486522</v>
+        <v>1.81205209322026</v>
       </c>
       <c r="F22">
-        <v>3.252687876836774</v>
+        <v>3.177700284698119</v>
       </c>
       <c r="G22">
-        <v>0.3235227330204111</v>
+        <v>0.4144213058104782</v>
       </c>
       <c r="H22">
-        <v>0.01809579220613533</v>
+        <v>0.01719079380375421</v>
       </c>
       <c r="I22">
-        <v>0.01963396154714125</v>
+        <v>0.01733167683441295</v>
       </c>
       <c r="J22">
-        <v>0.2225453347952708</v>
+        <v>0.1385021089096483</v>
       </c>
       <c r="K22">
-        <v>0.1140836617493282</v>
+        <v>0.1001559758572004</v>
       </c>
       <c r="L22">
-        <v>0.060755042058112</v>
+        <v>0.07359404139270787</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02595928746348797</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.05739656254876735</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1.145578145851999</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.103559333193346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.243261666311184</v>
+      </c>
+      <c r="S22">
+        <v>0.9533882544122889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.41148122331424</v>
+        <v>3.285454452779447</v>
       </c>
       <c r="C23">
-        <v>0.934329821725953</v>
+        <v>0.9597837382840453</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.706534280439101</v>
+        <v>1.743302404358175</v>
       </c>
       <c r="F23">
-        <v>3.149662630562148</v>
+        <v>3.087722430451947</v>
       </c>
       <c r="G23">
-        <v>0.314248220277932</v>
+        <v>0.3730381630403343</v>
       </c>
       <c r="H23">
-        <v>0.01624898789490881</v>
+        <v>0.01545743635814534</v>
       </c>
       <c r="I23">
-        <v>0.01831234611297017</v>
+        <v>0.01625518317173835</v>
       </c>
       <c r="J23">
-        <v>0.2198973356539256</v>
+        <v>0.1606140846784854</v>
       </c>
       <c r="K23">
-        <v>0.1153953737234552</v>
+        <v>0.1036417982099653</v>
       </c>
       <c r="L23">
-        <v>0.05885547102943889</v>
+        <v>0.07562647668729738</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02542414210827637</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.05613949122203721</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1.12617145057915</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.07824678671102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.210428280124233</v>
+      </c>
+      <c r="S23">
+        <v>0.9556415903767856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.932339128209776</v>
+        <v>2.86184025959102</v>
       </c>
       <c r="C24">
-        <v>0.8138336132905977</v>
+        <v>0.8480164345291996</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.482238821320337</v>
+        <v>1.496351786500355</v>
       </c>
       <c r="F24">
-        <v>2.760420600319037</v>
+        <v>2.732984624356106</v>
       </c>
       <c r="G24">
-        <v>0.2783782725336721</v>
+        <v>0.2646895528861393</v>
       </c>
       <c r="H24">
-        <v>0.01003799807916403</v>
+        <v>0.009587029802648292</v>
       </c>
       <c r="I24">
-        <v>0.01400438155889017</v>
+        <v>0.01281614049781865</v>
       </c>
       <c r="J24">
-        <v>0.2095643968530538</v>
+        <v>0.2326204142173793</v>
       </c>
       <c r="K24">
-        <v>0.1200304652106414</v>
+        <v>0.1143474961519146</v>
       </c>
       <c r="L24">
-        <v>0.05162035317217928</v>
+        <v>0.083192918567212</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0224707407713165</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.05058069507966323</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1.058284107898899</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.9801536672267162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.105619684808872</v>
+      </c>
+      <c r="S24">
+        <v>0.9312747594567981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.413635989963325</v>
+        <v>2.367274436375226</v>
       </c>
       <c r="C25">
-        <v>0.6845843966619043</v>
+        <v>0.7062322344578433</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.241790683532486</v>
+        <v>1.250361095536135</v>
       </c>
       <c r="F25">
-        <v>2.346734339976834</v>
+        <v>2.329329117845901</v>
       </c>
       <c r="G25">
-        <v>0.2416738833927496</v>
+        <v>0.2248950168284622</v>
       </c>
       <c r="H25">
-        <v>0.004831763343625117</v>
+        <v>0.004595829535648632</v>
       </c>
       <c r="I25">
-        <v>0.009975653949817698</v>
+        <v>0.009414130224710604</v>
       </c>
       <c r="J25">
-        <v>0.1996199395902778</v>
+        <v>0.2323427097766597</v>
       </c>
       <c r="K25">
-        <v>0.1262822658336322</v>
+        <v>0.1224100083046018</v>
       </c>
       <c r="L25">
-        <v>0.04396482504092347</v>
+        <v>0.09089852998714854</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01889540510147913</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.04333320098217008</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.988055343743099</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.8810476101592712</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.019222096828614</v>
+      </c>
+      <c r="S25">
+        <v>0.8522171984258051</v>
       </c>
     </row>
   </sheetData>
